--- a/Results/Sentiwordnet/hasil_FOOD.xlsx
+++ b/Results/Sentiwordnet/hasil_FOOD.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="432">
   <si>
     <t>id</t>
   </si>
@@ -103,9 +103,6 @@
     <t>1090587:3</t>
   </si>
   <si>
-    <t>1102681:2</t>
-  </si>
-  <si>
     <t>1118167:2</t>
   </si>
   <si>
@@ -202,9 +199,6 @@
     <t>1205520:2</t>
   </si>
   <si>
-    <t>1212346:0</t>
-  </si>
-  <si>
     <t>1212346:4</t>
   </si>
   <si>
@@ -256,15 +250,9 @@
     <t>1275154:8</t>
   </si>
   <si>
-    <t>1280166:2</t>
-  </si>
-  <si>
     <t>1280166:3</t>
   </si>
   <si>
-    <t>1280179:3</t>
-  </si>
-  <si>
     <t>1286916:3</t>
   </si>
   <si>
@@ -346,18 +334,12 @@
     <t>1347423:1</t>
   </si>
   <si>
-    <t>1349391:1</t>
-  </si>
-  <si>
     <t>1352948:0</t>
   </si>
   <si>
     <t>1353599:0</t>
   </si>
   <si>
-    <t>1353599:1</t>
-  </si>
-  <si>
     <t>1353599:2</t>
   </si>
   <si>
@@ -442,9 +424,6 @@
     <t>1632445:5</t>
   </si>
   <si>
-    <t>1632445:6</t>
-  </si>
-  <si>
     <t>1655504:1</t>
   </si>
   <si>
@@ -637,9 +616,6 @@
     <t>the lava cake dessert was incredible and i recommend it.</t>
   </si>
   <si>
-    <t>the food was average to above-average; the french onion soup filling yet not overly impressive, and the desserts not brilliant in any way.</t>
-  </si>
-  <si>
     <t>the pizza was delivered cold and the cheese wasn't even fully melted!</t>
   </si>
   <si>
@@ -736,9 +712,6 @@
     <t>make sure you have the spicy scallop roll.. .</t>
   </si>
   <si>
-    <t>moules were excellent, lobster ravioli was very salty!</t>
-  </si>
-  <si>
     <t>tiny dessert was $8.00...just plain overpriced for what it is.</t>
   </si>
   <si>
@@ -790,15 +763,9 @@
     <t>try the lobster teriyaki and the rose special roll.</t>
   </si>
   <si>
-    <t>food was very good as well, considering that we tried the budget selection (though i wish the pork belly that i ordered was roasted a bit longer, so that fat was more of a melt-in-your-mouth experience).</t>
-  </si>
-  <si>
     <t>wine list selection is good and wine-by-the-glass was generously filled to the top.</t>
   </si>
   <si>
-    <t>food is usually very good, though ocasionally i wondered about freshmess of raw vegatables in side orders.</t>
-  </si>
-  <si>
     <t>it's simply the best meal in nyc.</t>
   </si>
   <si>
@@ -880,18 +847,12 @@
     <t>the staff was accomodating, the food was absolutely delicious and the place is lovely.</t>
   </si>
   <si>
-    <t>sometimes i get bad food and bad service, sometimes i get good good and bad service.</t>
-  </si>
-  <si>
     <t>the place is a bistro which means: simple dishes and wine served efficiently in a bustling atmosphere.</t>
   </si>
   <si>
     <t>right off the l in brooklyn this is a nice cozy place with good pizza.</t>
   </si>
   <si>
-    <t>mine was a little burnt but still delicious with goat cheese and panchetta (raddichio was kind of bitter though).</t>
-  </si>
-  <si>
     <t>my friend got the mushroom pizza which tasted better.</t>
   </si>
   <si>
@@ -976,9 +937,6 @@
     <t>even though its good seafood, the prices are too high.</t>
   </si>
   <si>
-    <t>the lobster sandwich is $24 and although it was good it was not nearly enough to warrant that price.</t>
-  </si>
-  <si>
     <t>cheese plate is a varied delight and great bargain at $10.</t>
   </si>
   <si>
@@ -1138,7 +1096,7 @@
     <t>pretty</t>
   </si>
   <si>
-    <t>goodthey</t>
+    <t>good</t>
   </si>
   <si>
     <t>well</t>
@@ -1150,18 +1108,12 @@
     <t>fresh</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
     <t>reasonable</t>
   </si>
   <si>
-    <t>impressive</t>
-  </si>
-  <si>
     <t>cold</t>
   </si>
   <si>
@@ -1171,9 +1123,6 @@
     <t>best</t>
   </si>
   <si>
-    <t>unusual</t>
-  </si>
-  <si>
     <t>fried</t>
   </si>
   <si>
@@ -1183,7 +1132,7 @@
     <t>bland</t>
   </si>
   <si>
-    <t>watery</t>
+    <t>much</t>
   </si>
   <si>
     <t>phenomenal</t>
@@ -1207,15 +1156,15 @@
     <t>spicy</t>
   </si>
   <si>
+    <t>fairly</t>
+  </si>
+  <si>
+    <t>beautifully</t>
+  </si>
+  <si>
     <t>excellent</t>
   </si>
   <si>
-    <t>fairly</t>
-  </si>
-  <si>
-    <t>beautifully</t>
-  </si>
-  <si>
     <t>cheap</t>
   </si>
   <si>
@@ -1261,9 +1210,6 @@
     <t>wonderful</t>
   </si>
   <si>
-    <t>fun</t>
-  </si>
-  <si>
     <t>organic</t>
   </si>
   <si>
@@ -1273,9 +1219,6 @@
     <t>timely</t>
   </si>
   <si>
-    <t>bad</t>
-  </si>
-  <si>
     <t>efficiently</t>
   </si>
   <si>
@@ -1297,24 +1240,21 @@
     <t>thai</t>
   </si>
   <si>
-    <t>excellentthe</t>
-  </si>
-  <si>
     <t>average</t>
   </si>
   <si>
     <t>redeeming</t>
   </si>
   <si>
+    <t>weird</t>
+  </si>
+  <si>
     <t>overdone</t>
   </si>
   <si>
     <t>recommended</t>
   </si>
   <si>
-    <t>greatest</t>
-  </si>
-  <si>
     <t>mortal</t>
   </si>
   <si>
@@ -1324,6 +1264,9 @@
     <t>nasty</t>
   </si>
   <si>
+    <t>extensive</t>
+  </si>
+  <si>
     <t>top</t>
   </si>
   <si>
@@ -1336,13 +1279,13 @@
     <t>exceeded</t>
   </si>
   <si>
+    <t>speedy</t>
+  </si>
+  <si>
     <t>friendly</t>
   </si>
   <si>
     <t>pricey</t>
-  </si>
-  <si>
-    <t>solid</t>
   </si>
   <si>
     <t>plentiful</t>
@@ -1724,7 +1667,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F179"/>
+  <dimension ref="A1:F172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1755,16 +1698,16 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="D2" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="E2" t="s">
-        <v>449</v>
+        <v>430</v>
       </c>
       <c r="F2" t="s">
-        <v>449</v>
+        <v>430</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1775,16 +1718,16 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="D3" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="E3" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F3" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1795,16 +1738,16 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="D4" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="E4" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F4" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1815,16 +1758,16 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="D5" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="E5" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F5" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1835,16 +1778,16 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="D6" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="E6" t="s">
-        <v>449</v>
+        <v>430</v>
       </c>
       <c r="F6" t="s">
-        <v>449</v>
+        <v>430</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1855,16 +1798,16 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D7" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="E7" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F7" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1875,16 +1818,16 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="D8" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="E8" t="s">
-        <v>449</v>
+        <v>430</v>
       </c>
       <c r="F8" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1895,16 +1838,16 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="D9" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="E9" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F9" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1915,16 +1858,16 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="D10" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="E10" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F10" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1935,16 +1878,16 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="D11" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="E11" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F11" t="s">
-        <v>449</v>
+        <v>430</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1955,16 +1898,16 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="D12" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="E12" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F12" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1975,13 +1918,16 @@
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>194</v>
+        <v>187</v>
+      </c>
+      <c r="D13" t="s">
+        <v>357</v>
       </c>
       <c r="E13" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F13" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1992,16 +1938,16 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="D14" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="E14" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F14" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2012,16 +1958,16 @@
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="D15" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="E15" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F15" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2032,16 +1978,16 @@
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="D16" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="E16" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F16" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2052,16 +1998,16 @@
         <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="D17" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="E17" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F17" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2072,16 +2018,16 @@
         <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="D18" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
       <c r="E18" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F18" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2092,16 +2038,16 @@
         <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="D19" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="E19" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F19" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2112,16 +2058,16 @@
         <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="D20" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="E20" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F20" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2132,16 +2078,16 @@
         <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D21" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="E21" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F21" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2152,16 +2098,16 @@
         <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D22" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="E22" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F22" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2172,16 +2118,16 @@
         <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="D23" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="E23" t="s">
-        <v>449</v>
+        <v>430</v>
       </c>
       <c r="F23" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2192,16 +2138,16 @@
         <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="D24" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="E24" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F24" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2212,16 +2158,16 @@
         <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="D25" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="E25" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F25" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2232,16 +2178,16 @@
         <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="D26" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="E26" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
       <c r="F26" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2252,16 +2198,16 @@
         <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="D27" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="E27" t="s">
-        <v>449</v>
+        <v>430</v>
       </c>
       <c r="F27" t="s">
-        <v>449</v>
+        <v>430</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -2272,16 +2218,16 @@
         <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="D28" t="s">
-        <v>383</v>
+        <v>360</v>
       </c>
       <c r="E28" t="s">
-        <v>449</v>
+        <v>430</v>
       </c>
       <c r="F28" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -2292,16 +2238,16 @@
         <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="D29" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="E29" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F29" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2312,16 +2258,16 @@
         <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="D30" t="s">
-        <v>384</v>
+        <v>360</v>
       </c>
       <c r="E30" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F30" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2332,16 +2278,16 @@
         <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D31" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="E31" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F31" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2352,16 +2298,16 @@
         <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="D32" t="s">
-        <v>385</v>
+        <v>358</v>
       </c>
       <c r="E32" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F32" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2372,16 +2318,16 @@
         <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="D33" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E33" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F33" t="s">
-        <v>449</v>
+        <v>430</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -2392,16 +2338,16 @@
         <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="D34" t="s">
-        <v>386</v>
+        <v>370</v>
       </c>
       <c r="E34" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F34" t="s">
-        <v>449</v>
+        <v>430</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2412,16 +2358,16 @@
         <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="D35" t="s">
-        <v>387</v>
+        <v>360</v>
       </c>
       <c r="E35" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F35" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2432,16 +2378,16 @@
         <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="D36" t="s">
-        <v>378</v>
+        <v>358</v>
       </c>
       <c r="E36" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F36" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2452,16 +2398,16 @@
         <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="D37" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E37" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
       <c r="F37" t="s">
-        <v>449</v>
+        <v>430</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2472,16 +2418,16 @@
         <v>41</v>
       </c>
       <c r="C38" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="D38" t="s">
-        <v>388</v>
+        <v>358</v>
       </c>
       <c r="E38" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
       <c r="F38" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2492,16 +2438,16 @@
         <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="D39" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="E39" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F39" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2512,16 +2458,16 @@
         <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="D40" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="E40" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F40" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2532,16 +2478,16 @@
         <v>44</v>
       </c>
       <c r="C41" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="D41" t="s">
-        <v>379</v>
+        <v>360</v>
       </c>
       <c r="E41" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
       <c r="F41" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2552,16 +2498,16 @@
         <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="D42" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="E42" t="s">
-        <v>449</v>
+        <v>430</v>
       </c>
       <c r="F42" t="s">
-        <v>449</v>
+        <v>430</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2572,16 +2518,16 @@
         <v>46</v>
       </c>
       <c r="C43" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="D43" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="E43" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
       <c r="F43" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2592,16 +2538,16 @@
         <v>47</v>
       </c>
       <c r="C44" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="D44" t="s">
-        <v>390</v>
+        <v>358</v>
       </c>
       <c r="E44" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F44" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2612,16 +2558,16 @@
         <v>48</v>
       </c>
       <c r="C45" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="D45" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E45" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F45" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2632,16 +2578,16 @@
         <v>49</v>
       </c>
       <c r="C46" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D46" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="E46" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F46" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2652,16 +2598,16 @@
         <v>50</v>
       </c>
       <c r="C47" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="D47" t="s">
-        <v>391</v>
+        <v>375</v>
       </c>
       <c r="E47" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F47" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2672,16 +2618,16 @@
         <v>51</v>
       </c>
       <c r="C48" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="D48" t="s">
-        <v>392</v>
+        <v>358</v>
       </c>
       <c r="E48" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F48" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2692,16 +2638,16 @@
         <v>52</v>
       </c>
       <c r="C49" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="D49" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="E49" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F49" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2712,16 +2658,16 @@
         <v>53</v>
       </c>
       <c r="C50" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="D50" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="E50" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F50" t="s">
-        <v>449</v>
+        <v>430</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2732,16 +2678,16 @@
         <v>54</v>
       </c>
       <c r="C51" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="D51" t="s">
-        <v>393</v>
+        <v>377</v>
       </c>
       <c r="E51" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
       <c r="F51" t="s">
-        <v>449</v>
+        <v>430</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2752,16 +2698,16 @@
         <v>55</v>
       </c>
       <c r="C52" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="D52" t="s">
-        <v>394</v>
+        <v>378</v>
       </c>
       <c r="E52" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
       <c r="F52" t="s">
-        <v>449</v>
+        <v>430</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2772,16 +2718,16 @@
         <v>56</v>
       </c>
       <c r="C53" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="D53" t="s">
-        <v>395</v>
+        <v>349</v>
       </c>
       <c r="E53" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F53" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2792,16 +2738,16 @@
         <v>57</v>
       </c>
       <c r="C54" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="D54" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E54" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F54" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2812,16 +2758,16 @@
         <v>58</v>
       </c>
       <c r="C55" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="D55" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="E55" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F55" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2832,16 +2778,16 @@
         <v>59</v>
       </c>
       <c r="C56" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="D56" t="s">
-        <v>379</v>
+        <v>358</v>
       </c>
       <c r="E56" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F56" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2852,16 +2798,16 @@
         <v>60</v>
       </c>
       <c r="C57" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="D57" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="E57" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F57" t="s">
-        <v>449</v>
+        <v>430</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2872,16 +2818,16 @@
         <v>61</v>
       </c>
       <c r="C58" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="D58" t="s">
-        <v>396</v>
+        <v>367</v>
       </c>
       <c r="E58" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
       <c r="F58" t="s">
-        <v>449</v>
+        <v>430</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2892,16 +2838,16 @@
         <v>62</v>
       </c>
       <c r="C59" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="D59" t="s">
-        <v>397</v>
+        <v>380</v>
       </c>
       <c r="E59" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F59" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2912,16 +2858,16 @@
         <v>63</v>
       </c>
       <c r="C60" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="D60" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="E60" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
       <c r="F60" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2932,16 +2878,16 @@
         <v>64</v>
       </c>
       <c r="C61" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="D61" t="s">
-        <v>398</v>
+        <v>381</v>
       </c>
       <c r="E61" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F61" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2952,16 +2898,16 @@
         <v>65</v>
       </c>
       <c r="C62" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="D62" t="s">
-        <v>395</v>
+        <v>361</v>
       </c>
       <c r="E62" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F62" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2972,16 +2918,16 @@
         <v>66</v>
       </c>
       <c r="C63" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="D63" t="s">
-        <v>399</v>
+        <v>360</v>
       </c>
       <c r="E63" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F63" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2992,16 +2938,16 @@
         <v>67</v>
       </c>
       <c r="C64" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="D64" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="E64" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F64" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -3012,16 +2958,16 @@
         <v>68</v>
       </c>
       <c r="C65" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="D65" t="s">
-        <v>378</v>
+        <v>358</v>
       </c>
       <c r="E65" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F65" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -3032,16 +2978,16 @@
         <v>69</v>
       </c>
       <c r="C66" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="D66" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="E66" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F66" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -3052,16 +2998,16 @@
         <v>70</v>
       </c>
       <c r="C67" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="D67" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="E67" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
       <c r="F67" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -3072,16 +3018,16 @@
         <v>71</v>
       </c>
       <c r="C68" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="D68" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="E68" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F68" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -3092,16 +3038,16 @@
         <v>72</v>
       </c>
       <c r="C69" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="D69" t="s">
-        <v>401</v>
+        <v>386</v>
       </c>
       <c r="E69" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
       <c r="F69" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -3112,16 +3058,13 @@
         <v>73</v>
       </c>
       <c r="C70" t="s">
-        <v>251</v>
-      </c>
-      <c r="D70" t="s">
-        <v>402</v>
+        <v>244</v>
       </c>
       <c r="E70" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F70" t="s">
-        <v>449</v>
+        <v>430</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -3132,16 +3075,16 @@
         <v>74</v>
       </c>
       <c r="C71" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="D71" t="s">
-        <v>403</v>
+        <v>387</v>
       </c>
       <c r="E71" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F71" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -3152,13 +3095,16 @@
         <v>75</v>
       </c>
       <c r="C72" t="s">
-        <v>253</v>
+        <v>246</v>
+      </c>
+      <c r="D72" t="s">
+        <v>388</v>
       </c>
       <c r="E72" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F72" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -3169,16 +3115,16 @@
         <v>76</v>
       </c>
       <c r="C73" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="D73" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
       <c r="E73" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F73" t="s">
-        <v>449</v>
+        <v>430</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -3189,16 +3135,16 @@
         <v>77</v>
       </c>
       <c r="C74" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="D74" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
       <c r="E74" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F74" t="s">
-        <v>449</v>
+        <v>430</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -3209,16 +3155,16 @@
         <v>78</v>
       </c>
       <c r="C75" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="D75" t="s">
-        <v>406</v>
+        <v>360</v>
       </c>
       <c r="E75" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F75" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -3229,16 +3175,16 @@
         <v>79</v>
       </c>
       <c r="C76" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="D76" t="s">
-        <v>407</v>
+        <v>368</v>
       </c>
       <c r="E76" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F76" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -3249,16 +3195,16 @@
         <v>80</v>
       </c>
       <c r="C77" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="D77" t="s">
-        <v>378</v>
+        <v>391</v>
       </c>
       <c r="E77" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F77" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -3269,16 +3215,16 @@
         <v>81</v>
       </c>
       <c r="C78" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="D78" t="s">
-        <v>378</v>
+        <v>392</v>
       </c>
       <c r="E78" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F78" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -3289,16 +3235,16 @@
         <v>82</v>
       </c>
       <c r="C79" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="D79" t="s">
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="E79" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F79" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -3309,16 +3255,16 @@
         <v>83</v>
       </c>
       <c r="C80" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="D80" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="E80" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
       <c r="F80" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -3329,16 +3275,16 @@
         <v>84</v>
       </c>
       <c r="C81" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="D81" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="E81" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F81" t="s">
-        <v>449</v>
+        <v>430</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -3349,16 +3295,16 @@
         <v>85</v>
       </c>
       <c r="C82" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="D82" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
       <c r="E82" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F82" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -3369,16 +3315,16 @@
         <v>86</v>
       </c>
       <c r="C83" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="D83" t="s">
-        <v>410</v>
+        <v>354</v>
       </c>
       <c r="E83" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F83" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -3389,16 +3335,16 @@
         <v>87</v>
       </c>
       <c r="C84" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="D84" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="E84" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
       <c r="F84" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -3409,16 +3355,16 @@
         <v>88</v>
       </c>
       <c r="C85" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="D85" t="s">
-        <v>412</v>
+        <v>371</v>
       </c>
       <c r="E85" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
       <c r="F85" t="s">
-        <v>449</v>
+        <v>430</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -3429,16 +3375,16 @@
         <v>89</v>
       </c>
       <c r="C86" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="D86" t="s">
-        <v>413</v>
+        <v>359</v>
       </c>
       <c r="E86" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
       <c r="F86" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -3449,16 +3395,16 @@
         <v>90</v>
       </c>
       <c r="C87" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="D87" t="s">
-        <v>368</v>
+        <v>392</v>
       </c>
       <c r="E87" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F87" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -3469,16 +3415,16 @@
         <v>91</v>
       </c>
       <c r="C88" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="D88" t="s">
-        <v>414</v>
+        <v>349</v>
       </c>
       <c r="E88" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F88" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -3489,16 +3435,13 @@
         <v>92</v>
       </c>
       <c r="C89" t="s">
-        <v>270</v>
-      </c>
-      <c r="D89" t="s">
-        <v>415</v>
+        <v>263</v>
       </c>
       <c r="E89" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
       <c r="F89" t="s">
-        <v>449</v>
+        <v>430</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3509,16 +3452,16 @@
         <v>93</v>
       </c>
       <c r="C90" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="D90" t="s">
-        <v>373</v>
+        <v>392</v>
       </c>
       <c r="E90" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
       <c r="F90" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -3529,16 +3472,16 @@
         <v>94</v>
       </c>
       <c r="C91" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="D91" t="s">
-        <v>409</v>
+        <v>369</v>
       </c>
       <c r="E91" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F91" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3549,16 +3492,16 @@
         <v>95</v>
       </c>
       <c r="C92" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D92" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="E92" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F92" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3569,13 +3512,16 @@
         <v>96</v>
       </c>
       <c r="C93" t="s">
-        <v>274</v>
+        <v>267</v>
+      </c>
+      <c r="D93" t="s">
+        <v>358</v>
       </c>
       <c r="E93" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F93" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3586,16 +3532,16 @@
         <v>97</v>
       </c>
       <c r="C94" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="D94" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="E94" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F94" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3606,16 +3552,16 @@
         <v>98</v>
       </c>
       <c r="C95" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="D95" t="s">
-        <v>386</v>
+        <v>360</v>
       </c>
       <c r="E95" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F95" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3626,16 +3572,16 @@
         <v>99</v>
       </c>
       <c r="C96" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="D96" t="s">
-        <v>391</v>
+        <v>360</v>
       </c>
       <c r="E96" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F96" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3646,16 +3592,16 @@
         <v>100</v>
       </c>
       <c r="C97" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="D97" t="s">
-        <v>372</v>
+        <v>399</v>
       </c>
       <c r="E97" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
       <c r="F97" t="s">
-        <v>449</v>
+        <v>430</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3666,16 +3612,16 @@
         <v>101</v>
       </c>
       <c r="C98" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="D98" t="s">
-        <v>416</v>
+        <v>358</v>
       </c>
       <c r="E98" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F98" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3686,16 +3632,16 @@
         <v>102</v>
       </c>
       <c r="C99" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="D99" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="E99" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F99" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3706,16 +3652,16 @@
         <v>103</v>
       </c>
       <c r="C100" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="D100" t="s">
-        <v>378</v>
+        <v>400</v>
       </c>
       <c r="E100" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F100" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3726,16 +3672,16 @@
         <v>104</v>
       </c>
       <c r="C101" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="D101" t="s">
-        <v>417</v>
+        <v>392</v>
       </c>
       <c r="E101" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
       <c r="F101" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3746,16 +3692,16 @@
         <v>105</v>
       </c>
       <c r="C102" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="D102" t="s">
-        <v>372</v>
+        <v>392</v>
       </c>
       <c r="E102" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F102" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3766,16 +3712,16 @@
         <v>106</v>
       </c>
       <c r="C103" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="D103" t="s">
         <v>401</v>
       </c>
       <c r="E103" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F103" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3786,16 +3732,16 @@
         <v>107</v>
       </c>
       <c r="C104" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="D104" t="s">
-        <v>418</v>
+        <v>360</v>
       </c>
       <c r="E104" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F104" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3806,16 +3752,16 @@
         <v>108</v>
       </c>
       <c r="C105" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="D105" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="E105" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F105" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3826,16 +3772,16 @@
         <v>109</v>
       </c>
       <c r="C106" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="D106" t="s">
-        <v>409</v>
+        <v>360</v>
       </c>
       <c r="E106" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F106" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3846,16 +3792,16 @@
         <v>110</v>
       </c>
       <c r="C107" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="D107" t="s">
-        <v>419</v>
+        <v>403</v>
       </c>
       <c r="E107" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
       <c r="F107" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3866,16 +3812,16 @@
         <v>111</v>
       </c>
       <c r="C108" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="D108" t="s">
-        <v>420</v>
+        <v>404</v>
       </c>
       <c r="E108" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F108" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3886,16 +3832,16 @@
         <v>112</v>
       </c>
       <c r="C109" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="D109" t="s">
-        <v>378</v>
+        <v>405</v>
       </c>
       <c r="E109" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F109" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3906,16 +3852,16 @@
         <v>113</v>
       </c>
       <c r="C110" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="D110" t="s">
-        <v>409</v>
+        <v>347</v>
       </c>
       <c r="E110" t="s">
-        <v>449</v>
+        <v>430</v>
       </c>
       <c r="F110" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3926,16 +3872,16 @@
         <v>114</v>
       </c>
       <c r="C111" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="D111" t="s">
-        <v>421</v>
+        <v>364</v>
       </c>
       <c r="E111" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
       <c r="F111" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3946,16 +3892,16 @@
         <v>115</v>
       </c>
       <c r="C112" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="D112" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="E112" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F112" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3966,16 +3912,16 @@
         <v>116</v>
       </c>
       <c r="C113" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="D113" t="s">
-        <v>422</v>
+        <v>406</v>
       </c>
       <c r="E113" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F113" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3986,16 +3932,16 @@
         <v>117</v>
       </c>
       <c r="C114" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="D114" t="s">
-        <v>423</v>
+        <v>349</v>
       </c>
       <c r="E114" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F114" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -4006,16 +3952,16 @@
         <v>118</v>
       </c>
       <c r="C115" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="D115" t="s">
-        <v>424</v>
+        <v>407</v>
       </c>
       <c r="E115" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
       <c r="F115" t="s">
-        <v>449</v>
+        <v>430</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -4026,16 +3972,16 @@
         <v>119</v>
       </c>
       <c r="C116" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="D116" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E116" t="s">
-        <v>449</v>
+        <v>430</v>
       </c>
       <c r="F116" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -4046,16 +3992,16 @@
         <v>120</v>
       </c>
       <c r="C117" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="D117" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="E117" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
       <c r="F117" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -4066,16 +4012,16 @@
         <v>121</v>
       </c>
       <c r="C118" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D118" t="s">
-        <v>397</v>
+        <v>408</v>
       </c>
       <c r="E118" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
       <c r="F118" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -4086,16 +4032,16 @@
         <v>122</v>
       </c>
       <c r="C119" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="D119" t="s">
-        <v>425</v>
+        <v>409</v>
       </c>
       <c r="E119" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F119" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -4106,16 +4052,16 @@
         <v>123</v>
       </c>
       <c r="C120" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="D120" t="s">
-        <v>363</v>
+        <v>410</v>
       </c>
       <c r="E120" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
       <c r="F120" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -4126,16 +4072,16 @@
         <v>124</v>
       </c>
       <c r="C121" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="D121" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="E121" t="s">
-        <v>449</v>
+        <v>430</v>
       </c>
       <c r="F121" t="s">
-        <v>449</v>
+        <v>430</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -4146,16 +4092,16 @@
         <v>125</v>
       </c>
       <c r="C122" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="D122" t="s">
-        <v>378</v>
+        <v>412</v>
       </c>
       <c r="E122" t="s">
-        <v>449</v>
+        <v>430</v>
       </c>
       <c r="F122" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -4166,16 +4112,16 @@
         <v>126</v>
       </c>
       <c r="C123" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="D123" t="s">
-        <v>427</v>
+        <v>378</v>
       </c>
       <c r="E123" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F123" t="s">
-        <v>449</v>
+        <v>430</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -4186,16 +4132,16 @@
         <v>127</v>
       </c>
       <c r="C124" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="D124" t="s">
-        <v>428</v>
+        <v>360</v>
       </c>
       <c r="E124" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
       <c r="F124" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -4206,16 +4152,16 @@
         <v>128</v>
       </c>
       <c r="C125" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="D125" t="s">
-        <v>429</v>
+        <v>383</v>
       </c>
       <c r="E125" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F125" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -4226,16 +4172,16 @@
         <v>129</v>
       </c>
       <c r="C126" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="D126" t="s">
-        <v>388</v>
+        <v>413</v>
       </c>
       <c r="E126" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
       <c r="F126" t="s">
-        <v>449</v>
+        <v>430</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -4246,16 +4192,16 @@
         <v>130</v>
       </c>
       <c r="C127" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="D127" t="s">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="E127" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
       <c r="F127" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -4266,16 +4212,16 @@
         <v>131</v>
       </c>
       <c r="C128" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="D128" t="s">
-        <v>431</v>
+        <v>362</v>
       </c>
       <c r="E128" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
       <c r="F128" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -4286,16 +4232,16 @@
         <v>132</v>
       </c>
       <c r="C129" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="D129" t="s">
-        <v>395</v>
+        <v>368</v>
       </c>
       <c r="E129" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
       <c r="F129" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -4306,16 +4252,16 @@
         <v>133</v>
       </c>
       <c r="C130" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="D130" t="s">
-        <v>432</v>
+        <v>415</v>
       </c>
       <c r="E130" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F130" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -4326,16 +4272,16 @@
         <v>134</v>
       </c>
       <c r="C131" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="D131" t="s">
-        <v>400</v>
+        <v>364</v>
       </c>
       <c r="E131" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
       <c r="F131" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -4346,16 +4292,16 @@
         <v>135</v>
       </c>
       <c r="C132" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="D132" t="s">
-        <v>433</v>
+        <v>360</v>
       </c>
       <c r="E132" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F132" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -4366,16 +4312,16 @@
         <v>136</v>
       </c>
       <c r="C133" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="D133" t="s">
-        <v>434</v>
+        <v>358</v>
       </c>
       <c r="E133" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F133" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -4386,16 +4332,16 @@
         <v>137</v>
       </c>
       <c r="C134" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="D134" t="s">
-        <v>376</v>
+        <v>416</v>
       </c>
       <c r="E134" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F134" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -4406,16 +4352,16 @@
         <v>138</v>
       </c>
       <c r="C135" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="D135" t="s">
-        <v>384</v>
+        <v>358</v>
       </c>
       <c r="E135" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
       <c r="F135" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -4426,16 +4372,16 @@
         <v>139</v>
       </c>
       <c r="C136" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="D136" t="s">
-        <v>435</v>
+        <v>417</v>
       </c>
       <c r="E136" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F136" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -4446,16 +4392,16 @@
         <v>140</v>
       </c>
       <c r="C137" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="D137" t="s">
-        <v>379</v>
+        <v>358</v>
       </c>
       <c r="E137" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
       <c r="F137" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -4466,16 +4412,16 @@
         <v>141</v>
       </c>
       <c r="C138" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="D138" t="s">
-        <v>378</v>
+        <v>418</v>
       </c>
       <c r="E138" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
       <c r="F138" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -4486,16 +4432,16 @@
         <v>142</v>
       </c>
       <c r="C139" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="D139" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="E139" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F139" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -4506,16 +4452,16 @@
         <v>143</v>
       </c>
       <c r="C140" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="D140" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="E140" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F140" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -4526,16 +4472,16 @@
         <v>144</v>
       </c>
       <c r="C141" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="D141" t="s">
-        <v>383</v>
+        <v>358</v>
       </c>
       <c r="E141" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F141" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -4546,16 +4492,16 @@
         <v>145</v>
       </c>
       <c r="C142" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="D142" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="E142" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F142" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4566,16 +4512,16 @@
         <v>146</v>
       </c>
       <c r="C143" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="D143" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="E143" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F143" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4586,16 +4532,16 @@
         <v>147</v>
       </c>
       <c r="C144" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="D144" t="s">
-        <v>372</v>
+        <v>420</v>
       </c>
       <c r="E144" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F144" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4606,16 +4552,16 @@
         <v>148</v>
       </c>
       <c r="C145" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="D145" t="s">
-        <v>437</v>
+        <v>360</v>
       </c>
       <c r="E145" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
       <c r="F145" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4626,16 +4572,16 @@
         <v>149</v>
       </c>
       <c r="C146" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="D146" t="s">
-        <v>423</v>
+        <v>367</v>
       </c>
       <c r="E146" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F146" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4646,16 +4592,16 @@
         <v>150</v>
       </c>
       <c r="C147" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="D147" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="E147" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F147" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4666,16 +4612,16 @@
         <v>151</v>
       </c>
       <c r="C148" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="D148" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="E148" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F148" t="s">
-        <v>449</v>
+        <v>430</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4686,16 +4632,16 @@
         <v>152</v>
       </c>
       <c r="C149" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="D149" t="s">
-        <v>378</v>
+        <v>349</v>
       </c>
       <c r="E149" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F149" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4706,16 +4652,16 @@
         <v>153</v>
       </c>
       <c r="C150" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="D150" t="s">
-        <v>438</v>
+        <v>358</v>
       </c>
       <c r="E150" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F150" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4726,16 +4672,16 @@
         <v>154</v>
       </c>
       <c r="C151" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="D151" t="s">
-        <v>439</v>
+        <v>360</v>
       </c>
       <c r="E151" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F151" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4746,16 +4692,16 @@
         <v>155</v>
       </c>
       <c r="C152" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="D152" t="s">
-        <v>378</v>
+        <v>421</v>
       </c>
       <c r="E152" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F152" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4766,16 +4712,16 @@
         <v>156</v>
       </c>
       <c r="C153" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="D153" t="s">
-        <v>383</v>
+        <v>422</v>
       </c>
       <c r="E153" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F153" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4786,16 +4732,16 @@
         <v>157</v>
       </c>
       <c r="C154" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="D154" t="s">
-        <v>378</v>
+        <v>423</v>
       </c>
       <c r="E154" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
       <c r="F154" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4806,16 +4752,16 @@
         <v>158</v>
       </c>
       <c r="C155" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="D155" t="s">
-        <v>400</v>
+        <v>384</v>
       </c>
       <c r="E155" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F155" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4826,16 +4772,16 @@
         <v>159</v>
       </c>
       <c r="C156" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="D156" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="E156" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F156" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4846,16 +4792,16 @@
         <v>160</v>
       </c>
       <c r="C157" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="D157" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="E157" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F157" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4866,16 +4812,16 @@
         <v>161</v>
       </c>
       <c r="C158" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="D158" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="E158" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
       <c r="F158" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4886,16 +4832,16 @@
         <v>162</v>
       </c>
       <c r="C159" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="D159" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="E159" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F159" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4906,16 +4852,16 @@
         <v>163</v>
       </c>
       <c r="C160" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="D160" t="s">
-        <v>440</v>
+        <v>424</v>
       </c>
       <c r="E160" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F160" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4926,16 +4872,16 @@
         <v>164</v>
       </c>
       <c r="C161" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="D161" t="s">
-        <v>441</v>
+        <v>425</v>
       </c>
       <c r="E161" t="s">
-        <v>449</v>
+        <v>430</v>
       </c>
       <c r="F161" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4946,16 +4892,16 @@
         <v>165</v>
       </c>
       <c r="C162" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="D162" t="s">
-        <v>442</v>
+        <v>426</v>
       </c>
       <c r="E162" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
       <c r="F162" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4966,16 +4912,16 @@
         <v>166</v>
       </c>
       <c r="C163" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="D163" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="E163" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
       <c r="F163" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4986,16 +4932,16 @@
         <v>167</v>
       </c>
       <c r="C164" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="D164" t="s">
-        <v>397</v>
+        <v>427</v>
       </c>
       <c r="E164" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
       <c r="F164" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -5006,16 +4952,16 @@
         <v>168</v>
       </c>
       <c r="C165" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="D165" t="s">
-        <v>388</v>
+        <v>360</v>
       </c>
       <c r="E165" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
       <c r="F165" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -5026,16 +4972,16 @@
         <v>169</v>
       </c>
       <c r="C166" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="D166" t="s">
-        <v>378</v>
+        <v>428</v>
       </c>
       <c r="E166" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F166" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -5046,16 +4992,16 @@
         <v>170</v>
       </c>
       <c r="C167" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="D167" t="s">
-        <v>443</v>
+        <v>418</v>
       </c>
       <c r="E167" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F167" t="s">
-        <v>449</v>
+        <v>430</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -5066,16 +5012,16 @@
         <v>171</v>
       </c>
       <c r="C168" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="D168" t="s">
-        <v>444</v>
+        <v>397</v>
       </c>
       <c r="E168" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
       <c r="F168" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -5086,16 +5032,16 @@
         <v>172</v>
       </c>
       <c r="C169" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="D169" t="s">
-        <v>445</v>
+        <v>429</v>
       </c>
       <c r="E169" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
       <c r="F169" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -5106,16 +5052,16 @@
         <v>173</v>
       </c>
       <c r="C170" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="D170" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="E170" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
       <c r="F170" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -5126,16 +5072,16 @@
         <v>174</v>
       </c>
       <c r="C171" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="D171" t="s">
-        <v>446</v>
+        <v>371</v>
       </c>
       <c r="E171" t="s">
-        <v>449</v>
+        <v>430</v>
       </c>
       <c r="F171" t="s">
-        <v>449</v>
+        <v>430</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -5146,156 +5092,16 @@
         <v>175</v>
       </c>
       <c r="C172" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="D172" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="E172" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
       <c r="F172" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6">
-      <c r="A173" s="1">
-        <v>171</v>
-      </c>
-      <c r="B173" t="s">
-        <v>176</v>
-      </c>
-      <c r="C173" t="s">
-        <v>354</v>
-      </c>
-      <c r="D173" t="s">
-        <v>447</v>
-      </c>
-      <c r="E173" t="s">
-        <v>450</v>
-      </c>
-      <c r="F173" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6">
-      <c r="A174" s="1">
-        <v>172</v>
-      </c>
-      <c r="B174" t="s">
-        <v>177</v>
-      </c>
-      <c r="C174" t="s">
-        <v>355</v>
-      </c>
-      <c r="D174" t="s">
-        <v>437</v>
-      </c>
-      <c r="E174" t="s">
-        <v>450</v>
-      </c>
-      <c r="F174" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6">
-      <c r="A175" s="1">
-        <v>173</v>
-      </c>
-      <c r="B175" t="s">
-        <v>178</v>
-      </c>
-      <c r="C175" t="s">
-        <v>356</v>
-      </c>
-      <c r="D175" t="s">
-        <v>414</v>
-      </c>
-      <c r="E175" t="s">
-        <v>450</v>
-      </c>
-      <c r="F175" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6">
-      <c r="A176" s="1">
-        <v>174</v>
-      </c>
-      <c r="B176" t="s">
-        <v>179</v>
-      </c>
-      <c r="C176" t="s">
-        <v>357</v>
-      </c>
-      <c r="D176" t="s">
-        <v>448</v>
-      </c>
-      <c r="E176" t="s">
-        <v>450</v>
-      </c>
-      <c r="F176" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6">
-      <c r="A177" s="1">
-        <v>175</v>
-      </c>
-      <c r="B177" t="s">
-        <v>180</v>
-      </c>
-      <c r="C177" t="s">
-        <v>358</v>
-      </c>
-      <c r="D177" t="s">
-        <v>378</v>
-      </c>
-      <c r="E177" t="s">
-        <v>450</v>
-      </c>
-      <c r="F177" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6">
-      <c r="A178" s="1">
-        <v>176</v>
-      </c>
-      <c r="B178" t="s">
-        <v>181</v>
-      </c>
-      <c r="C178" t="s">
-        <v>359</v>
-      </c>
-      <c r="D178" t="s">
-        <v>388</v>
-      </c>
-      <c r="E178" t="s">
-        <v>449</v>
-      </c>
-      <c r="F178" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6">
-      <c r="A179" s="1">
-        <v>177</v>
-      </c>
-      <c r="B179" t="s">
-        <v>182</v>
-      </c>
-      <c r="C179" t="s">
-        <v>360</v>
-      </c>
-      <c r="D179" t="s">
-        <v>383</v>
-      </c>
-      <c r="E179" t="s">
-        <v>449</v>
-      </c>
-      <c r="F179" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Sentiwordnet/hasil_FOOD.xlsx
+++ b/Results/Sentiwordnet/hasil_FOOD.xlsx
@@ -2487,7 +2487,7 @@
         <v>430</v>
       </c>
       <c r="F41" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="42" spans="1:6">

--- a/Results/Sentiwordnet/hasil_FOOD.xlsx
+++ b/Results/Sentiwordnet/hasil_FOOD.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="443">
   <si>
     <t>id</t>
   </si>
@@ -70,12 +70,18 @@
     <t>1062641:2</t>
   </si>
   <si>
+    <t>1064477:0</t>
+  </si>
+  <si>
     <t>1064477:2</t>
   </si>
   <si>
     <t>1064477:3</t>
   </si>
   <si>
+    <t>1064477:4</t>
+  </si>
+  <si>
     <t>1074868:4</t>
   </si>
   <si>
@@ -187,6 +193,9 @@
     <t>1189674:1</t>
   </si>
   <si>
+    <t>1189674:2</t>
+  </si>
+  <si>
     <t>1189674:4</t>
   </si>
   <si>
@@ -217,9 +226,6 @@
     <t>1230993:4</t>
   </si>
   <si>
-    <t>1232468:0</t>
-  </si>
-  <si>
     <t>1241906:0</t>
   </si>
   <si>
@@ -229,6 +235,9 @@
     <t>1253117:2</t>
   </si>
   <si>
+    <t>1253117:5</t>
+  </si>
+  <si>
     <t>1256373:0</t>
   </si>
   <si>
@@ -394,6 +403,9 @@
     <t>1404042:4</t>
   </si>
   <si>
+    <t>1410878:1</t>
+  </si>
+  <si>
     <t>1410878:2</t>
   </si>
   <si>
@@ -439,6 +451,9 @@
     <t>1671113:1</t>
   </si>
   <si>
+    <t>1748813:1</t>
+  </si>
+  <si>
     <t>404464:3</t>
   </si>
   <si>
@@ -526,9 +541,6 @@
     <t>BG#5:7</t>
   </si>
   <si>
-    <t>BG#8:3</t>
-  </si>
-  <si>
     <t>Z#6:5</t>
   </si>
   <si>
@@ -583,12 +595,18 @@
     <t>food is great.</t>
   </si>
   <si>
+    <t>i tend to judge a sushi restaurant by its sea urchin, which was heavenly at sushi rose.</t>
+  </si>
+  <si>
     <t>the sushi seemed pretty fresh and was adequately proportioned.</t>
   </si>
   <si>
     <t>the rice to fish ration was also good--they didn't try to overpack the rice.</t>
   </si>
   <si>
+    <t>we took advanatage of the half price sushi deal on saturday so it was well worth it.</t>
+  </si>
+  <si>
     <t>the food was well prepared and the service impecable.</t>
   </si>
   <si>
@@ -700,6 +718,9 @@
     <t>the food was amazing, and the service was prompt and helpful, but not over-bearing or rushed.</t>
   </si>
   <si>
+    <t>the steak tartare is a great bet, they fix it for you at the table.</t>
+  </si>
+  <si>
     <t>great wine selection, gigondas is worth the price, and the house champagne is a great value.</t>
   </si>
   <si>
@@ -730,9 +751,6 @@
     <t>the food was good too.</t>
   </si>
   <si>
-    <t>the tuna and wasabe potatoes are excellent.</t>
-  </si>
-  <si>
     <t>great service, great food.</t>
   </si>
   <si>
@@ -742,6 +760,9 @@
     <t>two complaints- their appetizer selection stinks, it would be nice to get some mozzarella sticks on the menu.</t>
   </si>
   <si>
+    <t>wait staff is blantently unappreciative of your business but its the best pie on the uws!</t>
+  </si>
+  <si>
     <t>by far the best salad i have had in a fast food restaurant.</t>
   </si>
   <si>
@@ -907,6 +928,9 @@
     <t>someone else recommended the dessert - we also left that.</t>
   </si>
   <si>
+    <t>i've never had bad service and the fish is fresh and delicious.</t>
+  </si>
+  <si>
     <t>their tuna tartar appetizer is to die for.</t>
   </si>
   <si>
@@ -952,6 +976,9 @@
     <t>the food is great and reasonably priced.</t>
   </si>
   <si>
+    <t>all of the pizzas are terrific and the price is even better!</t>
+  </si>
+  <si>
     <t>i expected quite a bit more from such an expensive menu.</t>
   </si>
   <si>
@@ -1039,9 +1066,6 @@
     <t>but if you're prepared to spend some $ and remember to ask if something they offer is complimentary, then this is the place to go for indian food</t>
   </si>
   <si>
-    <t>the lunch buffet is expensive but is deff worth it.</t>
-  </si>
-  <si>
     <t>my party had the bbe $29 fixe prix menu, which was such a wonderful deal since it also came with a flight of sake!</t>
   </si>
   <si>
@@ -1093,6 +1117,9 @@
     <t>great</t>
   </si>
   <si>
+    <t>heavenly</t>
+  </si>
+  <si>
     <t>pretty</t>
   </si>
   <si>
@@ -1120,9 +1147,15 @@
     <t>overpriced</t>
   </si>
   <si>
+    <t>fancy</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
+    <t>unusual</t>
+  </si>
+  <si>
     <t>fried</t>
   </si>
   <si>
@@ -1144,6 +1177,9 @@
     <t>get</t>
   </si>
   <si>
+    <t>variety</t>
+  </si>
+  <si>
     <t>its</t>
   </si>
   <si>
@@ -1153,7 +1189,7 @@
     <t>die</t>
   </si>
   <si>
-    <t>spicy</t>
+    <t>sure</t>
   </si>
   <si>
     <t>fairly</t>
@@ -1162,78 +1198,75 @@
     <t>beautifully</t>
   </si>
   <si>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>fast</t>
+  </si>
+  <si>
+    <t>fine</t>
+  </si>
+  <si>
+    <t>freeze</t>
+  </si>
+  <si>
+    <t>heaven</t>
+  </si>
+  <si>
+    <t>overlooked</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>rough</t>
+  </si>
+  <si>
+    <t>delicious</t>
+  </si>
+  <si>
+    <t>huge</t>
+  </si>
+  <si>
+    <t>messy</t>
+  </si>
+  <si>
+    <t>delicous</t>
+  </si>
+  <si>
+    <t>wonderful</t>
+  </si>
+  <si>
+    <t>refreshing</t>
+  </si>
+  <si>
+    <t>organic</t>
+  </si>
+  <si>
+    <t>limited</t>
+  </si>
+  <si>
+    <t>efficiently</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>enough</t>
+  </si>
+  <si>
+    <t>authentic</t>
+  </si>
+  <si>
+    <t>terrific</t>
+  </si>
+  <si>
     <t>excellent</t>
   </si>
   <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>fast</t>
-  </si>
-  <si>
-    <t>fine</t>
-  </si>
-  <si>
-    <t>freeze</t>
-  </si>
-  <si>
-    <t>heaven</t>
-  </si>
-  <si>
-    <t>overlooked</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>rough</t>
-  </si>
-  <si>
-    <t>delicious</t>
-  </si>
-  <si>
-    <t>huge</t>
-  </si>
-  <si>
-    <t>messy</t>
-  </si>
-  <si>
-    <t>delicous</t>
-  </si>
-  <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>wonderful</t>
-  </si>
-  <si>
-    <t>organic</t>
-  </si>
-  <si>
-    <t>limited</t>
-  </si>
-  <si>
-    <t>timely</t>
-  </si>
-  <si>
-    <t>efficiently</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>enough</t>
-  </si>
-  <si>
-    <t>authentic</t>
-  </si>
-  <si>
-    <t>terrific</t>
-  </si>
-  <si>
     <t>superb</t>
   </si>
   <si>
@@ -1246,9 +1279,6 @@
     <t>redeeming</t>
   </si>
   <si>
-    <t>weird</t>
-  </si>
-  <si>
     <t>overdone</t>
   </si>
   <si>
@@ -1295,6 +1325,9 @@
   </si>
   <si>
     <t>expect</t>
+  </si>
+  <si>
+    <t>enjoy</t>
   </si>
   <si>
     <t>inedible</t>
@@ -1667,7 +1700,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F172"/>
+  <dimension ref="A1:F176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1698,16 +1731,16 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D2" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="E2" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="F2" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1718,16 +1751,16 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="D3" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="E3" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F3" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1738,16 +1771,16 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D4" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="E4" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F4" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1758,16 +1791,16 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D5" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="E5" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F5" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1778,16 +1811,16 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="D6" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="E6" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="F6" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1798,16 +1831,16 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D7" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="E7" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F7" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1818,16 +1851,16 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D8" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="E8" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="F8" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1838,16 +1871,16 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D9" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="E9" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F9" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1858,16 +1891,16 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="D10" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="E10" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F10" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1878,16 +1911,16 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D11" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="E11" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F11" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1898,16 +1931,16 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="D12" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="E12" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F12" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1918,16 +1951,16 @@
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="D13" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="E13" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F13" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1938,16 +1971,16 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="D14" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="E14" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F14" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1958,16 +1991,16 @@
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="D15" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="E15" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F15" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1978,16 +2011,16 @@
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="D16" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="E16" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F16" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1998,16 +2031,16 @@
         <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D17" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="E17" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F17" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2018,16 +2051,16 @@
         <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="D18" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="E18" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F18" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2038,16 +2071,16 @@
         <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D19" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="E19" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F19" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2058,16 +2091,16 @@
         <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="D20" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c r="E20" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F20" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2078,16 +2111,16 @@
         <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D21" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
       <c r="E21" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F21" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2098,16 +2131,16 @@
         <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D22" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="E22" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F22" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2118,16 +2151,16 @@
         <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D23" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="E23" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="F23" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2138,16 +2171,16 @@
         <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="D24" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="E24" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F24" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2158,16 +2191,16 @@
         <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D25" t="s">
-        <v>352</v>
+        <v>373</v>
       </c>
       <c r="E25" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="F25" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2178,16 +2211,16 @@
         <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D26" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="E26" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="F26" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2198,16 +2231,16 @@
         <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="D27" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="E27" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="F27" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -2218,16 +2251,16 @@
         <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D28" t="s">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="E28" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="F28" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -2238,16 +2271,16 @@
         <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D29" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="E29" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="F29" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2258,16 +2291,16 @@
         <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="D30" t="s">
-        <v>360</v>
+        <v>377</v>
       </c>
       <c r="E30" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="F30" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2278,16 +2311,16 @@
         <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="D31" t="s">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="E31" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F31" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2298,16 +2331,16 @@
         <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D32" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="E32" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F32" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2318,16 +2351,16 @@
         <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D33" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="E33" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F33" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -2338,16 +2371,16 @@
         <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D34" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="E34" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F34" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2358,16 +2391,16 @@
         <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="D35" t="s">
-        <v>360</v>
+        <v>380</v>
       </c>
       <c r="E35" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F35" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2378,16 +2411,16 @@
         <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="D36" t="s">
-        <v>358</v>
+        <v>381</v>
       </c>
       <c r="E36" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F36" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2398,16 +2431,16 @@
         <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D37" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E37" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="F37" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2418,16 +2451,16 @@
         <v>41</v>
       </c>
       <c r="C38" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="D38" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="E38" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F38" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2438,16 +2471,16 @@
         <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D39" t="s">
-        <v>358</v>
+        <v>382</v>
       </c>
       <c r="E39" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="F39" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2458,16 +2491,16 @@
         <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D40" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="E40" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F40" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2478,16 +2511,16 @@
         <v>44</v>
       </c>
       <c r="C41" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="D41" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="E41" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="F41" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2498,16 +2531,16 @@
         <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="D42" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E42" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="F42" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2518,16 +2551,16 @@
         <v>46</v>
       </c>
       <c r="C43" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D43" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="E43" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="F43" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2538,16 +2571,16 @@
         <v>47</v>
       </c>
       <c r="C44" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D44" t="s">
-        <v>358</v>
+        <v>383</v>
       </c>
       <c r="E44" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="F44" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2558,16 +2591,16 @@
         <v>48</v>
       </c>
       <c r="C45" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="D45" t="s">
-        <v>368</v>
+        <v>384</v>
       </c>
       <c r="E45" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F45" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2578,16 +2611,16 @@
         <v>49</v>
       </c>
       <c r="C46" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D46" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="E46" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F46" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2598,16 +2631,16 @@
         <v>50</v>
       </c>
       <c r="C47" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D47" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="E47" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F47" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2618,16 +2651,16 @@
         <v>51</v>
       </c>
       <c r="C48" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="D48" t="s">
-        <v>358</v>
+        <v>385</v>
       </c>
       <c r="E48" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F48" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2638,16 +2671,16 @@
         <v>52</v>
       </c>
       <c r="C49" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="D49" t="s">
-        <v>358</v>
+        <v>386</v>
       </c>
       <c r="E49" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F49" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2658,16 +2691,16 @@
         <v>53</v>
       </c>
       <c r="C50" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="D50" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="E50" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F50" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2678,16 +2711,16 @@
         <v>54</v>
       </c>
       <c r="C51" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="D51" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="E51" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="F51" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2698,16 +2731,16 @@
         <v>55</v>
       </c>
       <c r="C52" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="D52" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="E52" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F52" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2718,16 +2751,16 @@
         <v>56</v>
       </c>
       <c r="C53" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="D53" t="s">
-        <v>349</v>
+        <v>389</v>
       </c>
       <c r="E53" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="F53" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2738,16 +2771,16 @@
         <v>57</v>
       </c>
       <c r="C54" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="D54" t="s">
-        <v>362</v>
+        <v>390</v>
       </c>
       <c r="E54" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F54" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2758,16 +2791,16 @@
         <v>58</v>
       </c>
       <c r="C55" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="D55" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E55" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F55" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2778,16 +2811,16 @@
         <v>59</v>
       </c>
       <c r="C56" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="D56" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="E56" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F56" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2798,16 +2831,16 @@
         <v>60</v>
       </c>
       <c r="C57" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="D57" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="E57" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F57" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2818,16 +2851,16 @@
         <v>61</v>
       </c>
       <c r="C58" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="D58" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="E58" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="F58" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2838,16 +2871,16 @@
         <v>62</v>
       </c>
       <c r="C59" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="D59" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="E59" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F59" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2858,16 +2891,16 @@
         <v>63</v>
       </c>
       <c r="C60" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="D60" t="s">
-        <v>378</v>
+        <v>391</v>
       </c>
       <c r="E60" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F60" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2878,16 +2911,16 @@
         <v>64</v>
       </c>
       <c r="C61" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D61" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E61" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="F61" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2898,16 +2931,16 @@
         <v>65</v>
       </c>
       <c r="C62" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D62" t="s">
-        <v>361</v>
+        <v>392</v>
       </c>
       <c r="E62" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F62" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2918,16 +2951,16 @@
         <v>66</v>
       </c>
       <c r="C63" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="D63" t="s">
-        <v>360</v>
+        <v>390</v>
       </c>
       <c r="E63" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F63" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2938,16 +2971,16 @@
         <v>67</v>
       </c>
       <c r="C64" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="D64" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="E64" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F64" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2958,16 +2991,16 @@
         <v>68</v>
       </c>
       <c r="C65" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="D65" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="E65" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F65" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2978,16 +3011,16 @@
         <v>69</v>
       </c>
       <c r="C66" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D66" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="E66" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F66" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2998,16 +3031,16 @@
         <v>70</v>
       </c>
       <c r="C67" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D67" t="s">
-        <v>384</v>
+        <v>366</v>
       </c>
       <c r="E67" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="F67" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -3018,16 +3051,16 @@
         <v>71</v>
       </c>
       <c r="C68" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="D68" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="E68" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F68" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -3038,16 +3071,16 @@
         <v>72</v>
       </c>
       <c r="C69" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="D69" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="E69" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="F69" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -3058,13 +3091,16 @@
         <v>73</v>
       </c>
       <c r="C70" t="s">
-        <v>244</v>
+        <v>248</v>
+      </c>
+      <c r="D70" t="s">
+        <v>378</v>
       </c>
       <c r="E70" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F70" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -3075,16 +3111,16 @@
         <v>74</v>
       </c>
       <c r="C71" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="D71" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="E71" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F71" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -3095,16 +3131,16 @@
         <v>75</v>
       </c>
       <c r="C72" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="D72" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="E72" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F72" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -3115,16 +3151,13 @@
         <v>76</v>
       </c>
       <c r="C73" t="s">
-        <v>247</v>
-      </c>
-      <c r="D73" t="s">
-        <v>389</v>
+        <v>251</v>
       </c>
       <c r="E73" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F73" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -3135,16 +3168,16 @@
         <v>77</v>
       </c>
       <c r="C74" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D74" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="E74" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F74" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -3155,16 +3188,16 @@
         <v>78</v>
       </c>
       <c r="C75" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="D75" t="s">
-        <v>360</v>
+        <v>399</v>
       </c>
       <c r="E75" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F75" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -3175,16 +3208,16 @@
         <v>79</v>
       </c>
       <c r="C76" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="D76" t="s">
-        <v>368</v>
+        <v>400</v>
       </c>
       <c r="E76" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F76" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -3195,16 +3228,16 @@
         <v>80</v>
       </c>
       <c r="C77" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D77" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="E77" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F77" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -3215,16 +3248,16 @@
         <v>81</v>
       </c>
       <c r="C78" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="D78" t="s">
-        <v>392</v>
+        <v>369</v>
       </c>
       <c r="E78" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F78" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -3235,16 +3268,16 @@
         <v>82</v>
       </c>
       <c r="C79" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="D79" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="E79" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F79" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -3255,16 +3288,16 @@
         <v>83</v>
       </c>
       <c r="C80" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="D80" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="E80" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="F80" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -3275,16 +3308,16 @@
         <v>84</v>
       </c>
       <c r="C81" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="D81" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="E81" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F81" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -3295,16 +3328,16 @@
         <v>85</v>
       </c>
       <c r="C82" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="D82" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="E82" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F82" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -3315,16 +3348,16 @@
         <v>86</v>
       </c>
       <c r="C83" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="D83" t="s">
-        <v>354</v>
+        <v>405</v>
       </c>
       <c r="E83" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="F83" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -3335,16 +3368,16 @@
         <v>87</v>
       </c>
       <c r="C84" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="D84" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="E84" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F84" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -3355,16 +3388,16 @@
         <v>88</v>
       </c>
       <c r="C85" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D85" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E85" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="F85" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -3375,16 +3408,16 @@
         <v>89</v>
       </c>
       <c r="C86" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="D86" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="E86" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="F86" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -3395,16 +3428,16 @@
         <v>90</v>
       </c>
       <c r="C87" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D87" t="s">
-        <v>392</v>
+        <v>407</v>
       </c>
       <c r="E87" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F87" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -3415,16 +3448,16 @@
         <v>91</v>
       </c>
       <c r="C88" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="D88" t="s">
-        <v>349</v>
+        <v>382</v>
       </c>
       <c r="E88" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="F88" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -3435,13 +3468,16 @@
         <v>92</v>
       </c>
       <c r="C89" t="s">
-        <v>263</v>
+        <v>267</v>
+      </c>
+      <c r="D89" t="s">
+        <v>368</v>
       </c>
       <c r="E89" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="F89" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3452,16 +3488,16 @@
         <v>93</v>
       </c>
       <c r="C90" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D90" t="s">
-        <v>392</v>
+        <v>403</v>
       </c>
       <c r="E90" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F90" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -3472,16 +3508,16 @@
         <v>94</v>
       </c>
       <c r="C91" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="D91" t="s">
-        <v>369</v>
+        <v>403</v>
       </c>
       <c r="E91" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F91" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3492,16 +3528,13 @@
         <v>95</v>
       </c>
       <c r="C92" t="s">
-        <v>266</v>
-      </c>
-      <c r="D92" t="s">
-        <v>374</v>
+        <v>270</v>
       </c>
       <c r="E92" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F92" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3512,16 +3545,16 @@
         <v>96</v>
       </c>
       <c r="C93" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="D93" t="s">
-        <v>358</v>
+        <v>408</v>
       </c>
       <c r="E93" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F93" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3532,16 +3565,16 @@
         <v>97</v>
       </c>
       <c r="C94" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D94" t="s">
-        <v>398</v>
+        <v>380</v>
       </c>
       <c r="E94" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F94" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3552,16 +3585,16 @@
         <v>98</v>
       </c>
       <c r="C95" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="D95" t="s">
-        <v>360</v>
+        <v>385</v>
       </c>
       <c r="E95" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F95" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3572,16 +3605,16 @@
         <v>99</v>
       </c>
       <c r="C96" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="D96" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="E96" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F96" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3592,16 +3625,16 @@
         <v>100</v>
       </c>
       <c r="C97" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="D97" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="E97" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="F97" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3612,16 +3645,16 @@
         <v>101</v>
       </c>
       <c r="C98" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="D98" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="E98" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F98" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3632,16 +3665,16 @@
         <v>102</v>
       </c>
       <c r="C99" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="D99" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="E99" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F99" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3652,16 +3685,16 @@
         <v>103</v>
       </c>
       <c r="C100" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="D100" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="E100" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="F100" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3672,16 +3705,16 @@
         <v>104</v>
       </c>
       <c r="C101" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="D101" t="s">
-        <v>392</v>
+        <v>366</v>
       </c>
       <c r="E101" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F101" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3692,16 +3725,16 @@
         <v>105</v>
       </c>
       <c r="C102" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="D102" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="E102" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F102" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3712,16 +3745,16 @@
         <v>106</v>
       </c>
       <c r="C103" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="D103" t="s">
-        <v>401</v>
+        <v>372</v>
       </c>
       <c r="E103" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F103" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3732,16 +3765,16 @@
         <v>107</v>
       </c>
       <c r="C104" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="D104" t="s">
-        <v>360</v>
+        <v>403</v>
       </c>
       <c r="E104" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F104" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3752,16 +3785,16 @@
         <v>108</v>
       </c>
       <c r="C105" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="D105" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E105" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F105" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3772,16 +3805,16 @@
         <v>109</v>
       </c>
       <c r="C106" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="D106" t="s">
-        <v>360</v>
+        <v>411</v>
       </c>
       <c r="E106" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F106" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3792,16 +3825,16 @@
         <v>110</v>
       </c>
       <c r="C107" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="D107" t="s">
-        <v>403</v>
+        <v>369</v>
       </c>
       <c r="E107" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F107" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3812,16 +3845,16 @@
         <v>111</v>
       </c>
       <c r="C108" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="D108" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="E108" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F108" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3832,16 +3865,16 @@
         <v>112</v>
       </c>
       <c r="C109" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="D109" t="s">
-        <v>405</v>
+        <v>369</v>
       </c>
       <c r="E109" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F109" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3852,16 +3885,16 @@
         <v>113</v>
       </c>
       <c r="C110" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="D110" t="s">
-        <v>347</v>
+        <v>413</v>
       </c>
       <c r="E110" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="F110" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3872,16 +3905,16 @@
         <v>114</v>
       </c>
       <c r="C111" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="D111" t="s">
-        <v>364</v>
+        <v>414</v>
       </c>
       <c r="E111" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="F111" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3892,16 +3925,16 @@
         <v>115</v>
       </c>
       <c r="C112" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D112" t="s">
-        <v>382</v>
+        <v>415</v>
       </c>
       <c r="E112" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F112" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3912,16 +3945,16 @@
         <v>116</v>
       </c>
       <c r="C113" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="D113" t="s">
-        <v>406</v>
+        <v>355</v>
       </c>
       <c r="E113" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="F113" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3932,16 +3965,16 @@
         <v>117</v>
       </c>
       <c r="C114" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D114" t="s">
-        <v>349</v>
+        <v>373</v>
       </c>
       <c r="E114" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="F114" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3952,16 +3985,16 @@
         <v>118</v>
       </c>
       <c r="C115" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="D115" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="E115" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="F115" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3972,16 +4005,16 @@
         <v>119</v>
       </c>
       <c r="C116" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="D116" t="s">
-        <v>360</v>
+        <v>417</v>
       </c>
       <c r="E116" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="F116" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3992,16 +4025,16 @@
         <v>120</v>
       </c>
       <c r="C117" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="D117" t="s">
-        <v>382</v>
+        <v>357</v>
       </c>
       <c r="E117" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F117" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -4012,16 +4045,16 @@
         <v>121</v>
       </c>
       <c r="C118" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="D118" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="E118" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="F118" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -4032,16 +4065,16 @@
         <v>122</v>
       </c>
       <c r="C119" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="D119" t="s">
-        <v>409</v>
+        <v>369</v>
       </c>
       <c r="E119" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="F119" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -4052,16 +4085,16 @@
         <v>123</v>
       </c>
       <c r="C120" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="D120" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="E120" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="F120" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -4072,16 +4105,16 @@
         <v>124</v>
       </c>
       <c r="C121" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="D121" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="E121" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="F121" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -4092,16 +4125,16 @@
         <v>125</v>
       </c>
       <c r="C122" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="D122" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="E122" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="F122" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -4112,16 +4145,16 @@
         <v>126</v>
       </c>
       <c r="C123" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="D123" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="E123" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="F123" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -4132,16 +4165,16 @@
         <v>127</v>
       </c>
       <c r="C124" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="D124" t="s">
-        <v>360</v>
+        <v>421</v>
       </c>
       <c r="E124" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="F124" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -4152,16 +4185,16 @@
         <v>128</v>
       </c>
       <c r="C125" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="D125" t="s">
-        <v>383</v>
+        <v>422</v>
       </c>
       <c r="E125" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="F125" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -4172,16 +4205,16 @@
         <v>129</v>
       </c>
       <c r="C126" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="D126" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="E126" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F126" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -4192,16 +4225,16 @@
         <v>130</v>
       </c>
       <c r="C127" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="D127" t="s">
-        <v>414</v>
+        <v>390</v>
       </c>
       <c r="E127" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F127" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -4212,16 +4245,16 @@
         <v>131</v>
       </c>
       <c r="C128" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="D128" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="E128" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F128" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -4232,16 +4265,16 @@
         <v>132</v>
       </c>
       <c r="C129" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="D129" t="s">
-        <v>368</v>
+        <v>394</v>
       </c>
       <c r="E129" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="F129" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -4252,16 +4285,16 @@
         <v>133</v>
       </c>
       <c r="C130" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="D130" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="E130" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F130" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -4272,16 +4305,16 @@
         <v>134</v>
       </c>
       <c r="C131" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="D131" t="s">
-        <v>364</v>
+        <v>424</v>
       </c>
       <c r="E131" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="F131" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -4292,16 +4325,16 @@
         <v>135</v>
       </c>
       <c r="C132" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="D132" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="E132" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F132" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -4312,16 +4345,16 @@
         <v>136</v>
       </c>
       <c r="C133" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="D133" t="s">
-        <v>358</v>
+        <v>378</v>
       </c>
       <c r="E133" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="F133" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -4332,16 +4365,16 @@
         <v>137</v>
       </c>
       <c r="C134" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="D134" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="E134" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F134" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -4352,16 +4385,16 @@
         <v>138</v>
       </c>
       <c r="C135" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="D135" t="s">
-        <v>358</v>
+        <v>373</v>
       </c>
       <c r="E135" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="F135" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -4372,16 +4405,16 @@
         <v>139</v>
       </c>
       <c r="C136" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="D136" t="s">
-        <v>417</v>
+        <v>369</v>
       </c>
       <c r="E136" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F136" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -4392,16 +4425,16 @@
         <v>140</v>
       </c>
       <c r="C137" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="D137" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="E137" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F137" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -4412,16 +4445,16 @@
         <v>141</v>
       </c>
       <c r="C138" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="D138" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="E138" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="F138" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -4432,16 +4465,16 @@
         <v>142</v>
       </c>
       <c r="C139" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D139" t="s">
-        <v>383</v>
+        <v>366</v>
       </c>
       <c r="E139" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F139" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -4452,16 +4485,16 @@
         <v>143</v>
       </c>
       <c r="C140" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="D140" t="s">
-        <v>358</v>
+        <v>427</v>
       </c>
       <c r="E140" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F140" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -4472,16 +4505,16 @@
         <v>144</v>
       </c>
       <c r="C141" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="D141" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="E141" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F141" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -4492,16 +4525,16 @@
         <v>145</v>
       </c>
       <c r="C142" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="D142" t="s">
-        <v>360</v>
+        <v>415</v>
       </c>
       <c r="E142" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F142" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4512,16 +4545,16 @@
         <v>146</v>
       </c>
       <c r="C143" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="D143" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="E143" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="F143" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4532,16 +4565,16 @@
         <v>147</v>
       </c>
       <c r="C144" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="D144" t="s">
-        <v>420</v>
+        <v>394</v>
       </c>
       <c r="E144" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F144" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4552,16 +4585,16 @@
         <v>148</v>
       </c>
       <c r="C145" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="D145" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="E145" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F145" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4572,16 +4605,16 @@
         <v>149</v>
       </c>
       <c r="C146" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="D146" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E146" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F146" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4592,16 +4625,16 @@
         <v>150</v>
       </c>
       <c r="C147" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="D147" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="E147" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F147" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4612,16 +4645,16 @@
         <v>151</v>
       </c>
       <c r="C148" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="D148" t="s">
-        <v>383</v>
+        <v>429</v>
       </c>
       <c r="E148" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F148" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4632,16 +4665,16 @@
         <v>152</v>
       </c>
       <c r="C149" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D149" t="s">
-        <v>349</v>
+        <v>430</v>
       </c>
       <c r="E149" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F149" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4652,16 +4685,16 @@
         <v>153</v>
       </c>
       <c r="C150" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="D150" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="E150" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F150" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4672,16 +4705,16 @@
         <v>154</v>
       </c>
       <c r="C151" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="D151" t="s">
-        <v>360</v>
+        <v>376</v>
       </c>
       <c r="E151" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F151" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4692,16 +4725,16 @@
         <v>155</v>
       </c>
       <c r="C152" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="D152" t="s">
-        <v>421</v>
+        <v>369</v>
       </c>
       <c r="E152" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F152" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4712,16 +4745,16 @@
         <v>156</v>
       </c>
       <c r="C153" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="D153" t="s">
-        <v>422</v>
+        <v>394</v>
       </c>
       <c r="E153" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F153" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4732,16 +4765,16 @@
         <v>157</v>
       </c>
       <c r="C154" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="D154" t="s">
-        <v>423</v>
+        <v>357</v>
       </c>
       <c r="E154" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="F154" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4752,16 +4785,16 @@
         <v>158</v>
       </c>
       <c r="C155" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="D155" t="s">
-        <v>384</v>
+        <v>366</v>
       </c>
       <c r="E155" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F155" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4772,16 +4805,16 @@
         <v>159</v>
       </c>
       <c r="C156" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="D156" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="E156" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F156" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4792,16 +4825,16 @@
         <v>160</v>
       </c>
       <c r="C157" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="D157" t="s">
-        <v>382</v>
+        <v>431</v>
       </c>
       <c r="E157" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F157" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4812,16 +4845,16 @@
         <v>161</v>
       </c>
       <c r="C158" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="D158" t="s">
-        <v>371</v>
+        <v>432</v>
       </c>
       <c r="E158" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="F158" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4832,16 +4865,16 @@
         <v>162</v>
       </c>
       <c r="C159" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="D159" t="s">
-        <v>360</v>
+        <v>433</v>
       </c>
       <c r="E159" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="F159" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4852,16 +4885,16 @@
         <v>163</v>
       </c>
       <c r="C160" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="D160" t="s">
-        <v>424</v>
+        <v>395</v>
       </c>
       <c r="E160" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F160" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4872,16 +4905,16 @@
         <v>164</v>
       </c>
       <c r="C161" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="D161" t="s">
-        <v>425</v>
+        <v>369</v>
       </c>
       <c r="E161" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="F161" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4892,16 +4925,16 @@
         <v>165</v>
       </c>
       <c r="C162" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="D162" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="E162" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="F162" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4912,16 +4945,16 @@
         <v>166</v>
       </c>
       <c r="C163" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="D163" t="s">
-        <v>360</v>
+        <v>382</v>
       </c>
       <c r="E163" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="F163" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4932,16 +4965,16 @@
         <v>167</v>
       </c>
       <c r="C164" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="D164" t="s">
-        <v>427</v>
+        <v>369</v>
       </c>
       <c r="E164" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="F164" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4952,16 +4985,16 @@
         <v>168</v>
       </c>
       <c r="C165" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="D165" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="E165" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F165" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4972,16 +5005,16 @@
         <v>169</v>
       </c>
       <c r="C166" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="D166" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="E166" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="F166" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4992,16 +5025,16 @@
         <v>170</v>
       </c>
       <c r="C167" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="D167" t="s">
-        <v>418</v>
+        <v>436</v>
       </c>
       <c r="E167" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="F167" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -5012,16 +5045,16 @@
         <v>171</v>
       </c>
       <c r="C168" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="D168" t="s">
-        <v>397</v>
+        <v>437</v>
       </c>
       <c r="E168" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="F168" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -5032,16 +5065,16 @@
         <v>172</v>
       </c>
       <c r="C169" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="D169" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="E169" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="F169" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -5052,16 +5085,16 @@
         <v>173</v>
       </c>
       <c r="C170" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="D170" t="s">
-        <v>360</v>
+        <v>428</v>
       </c>
       <c r="E170" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F170" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -5072,16 +5105,16 @@
         <v>174</v>
       </c>
       <c r="C171" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="D171" t="s">
-        <v>371</v>
+        <v>439</v>
       </c>
       <c r="E171" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="F171" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -5092,16 +5125,96 @@
         <v>175</v>
       </c>
       <c r="C172" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="D172" t="s">
-        <v>367</v>
+        <v>407</v>
       </c>
       <c r="E172" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="F172" t="s">
-        <v>430</v>
+        <v>442</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="A173" s="1">
+        <v>171</v>
+      </c>
+      <c r="B173" t="s">
+        <v>176</v>
+      </c>
+      <c r="C173" t="s">
+        <v>351</v>
+      </c>
+      <c r="D173" t="s">
+        <v>440</v>
+      </c>
+      <c r="E173" t="s">
+        <v>442</v>
+      </c>
+      <c r="F173" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="A174" s="1">
+        <v>172</v>
+      </c>
+      <c r="B174" t="s">
+        <v>177</v>
+      </c>
+      <c r="C174" t="s">
+        <v>352</v>
+      </c>
+      <c r="D174" t="s">
+        <v>369</v>
+      </c>
+      <c r="E174" t="s">
+        <v>442</v>
+      </c>
+      <c r="F174" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="A175" s="1">
+        <v>173</v>
+      </c>
+      <c r="B175" t="s">
+        <v>178</v>
+      </c>
+      <c r="C175" t="s">
+        <v>353</v>
+      </c>
+      <c r="D175" t="s">
+        <v>382</v>
+      </c>
+      <c r="E175" t="s">
+        <v>441</v>
+      </c>
+      <c r="F175" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="A176" s="1">
+        <v>174</v>
+      </c>
+      <c r="B176" t="s">
+        <v>179</v>
+      </c>
+      <c r="C176" t="s">
+        <v>354</v>
+      </c>
+      <c r="D176" t="s">
+        <v>376</v>
+      </c>
+      <c r="E176" t="s">
+        <v>441</v>
+      </c>
+      <c r="F176" t="s">
+        <v>441</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Sentiwordnet/hasil_FOOD.xlsx
+++ b/Results/Sentiwordnet/hasil_FOOD.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="449">
   <si>
     <t>id</t>
   </si>
@@ -46,6 +46,9 @@
     <t>1016296:4</t>
   </si>
   <si>
+    <t>1032695:1</t>
+  </si>
+  <si>
     <t>1032695:2</t>
   </si>
   <si>
@@ -301,9 +304,6 @@
     <t>1318537:0</t>
   </si>
   <si>
-    <t>1318537:4</t>
-  </si>
-  <si>
     <t>1328078:3</t>
   </si>
   <si>
@@ -409,6 +409,12 @@
     <t>1410878:2</t>
   </si>
   <si>
+    <t>1413697:0</t>
+  </si>
+  <si>
+    <t>1417496:0</t>
+  </si>
+  <si>
     <t>1439875:3</t>
   </si>
   <si>
@@ -571,6 +577,9 @@
     <t>chow fun was dry; pork shu mai was more than usually greasy and had to share a table with loud and rude family.</t>
   </si>
   <si>
+    <t>everything is always cooked to perfection, the service is excellent, the decor cool and understated.</t>
+  </si>
+  <si>
     <t>i had the duck breast special on my last visit and it was incredible.</t>
   </si>
   <si>
@@ -826,9 +835,6 @@
     <t>fresh restaurant was amazing........ food was delicious and of course fresh.</t>
   </si>
   <si>
-    <t>hats off to the chef.</t>
-  </si>
-  <si>
     <t>the salads are delicious, both refreshing and very spicy.</t>
   </si>
   <si>
@@ -934,6 +940,12 @@
     <t>their tuna tartar appetizer is to die for.</t>
   </si>
   <si>
+    <t>i come from a family of pizzeria owners, and i'm almost ashamed to say that the pizza in fornino's blows my families receipies away.</t>
+  </si>
+  <si>
+    <t>a restaurant that doesn't try to do anything except serve great food with great service in a pleasant atmosphere.</t>
+  </si>
+  <si>
     <t>the food can get pricey but the prixe fixe tasting menu is the greatest food for a good price and they cater the food to any food allergies or food you don't like.</t>
   </si>
   <si>
@@ -1093,7 +1105,10 @@
     <t>interesting</t>
   </si>
   <si>
-    <t>greasy</t>
+    <t>rude</t>
+  </si>
+  <si>
+    <t>perfection</t>
   </si>
   <si>
     <t>incredible</t>
@@ -1147,9 +1162,6 @@
     <t>overpriced</t>
   </si>
   <si>
-    <t>fancy</t>
-  </si>
-  <si>
     <t>best</t>
   </si>
   <si>
@@ -1159,9 +1171,6 @@
     <t>fried</t>
   </si>
   <si>
-    <t>japanese</t>
-  </si>
-  <si>
     <t>bland</t>
   </si>
   <si>
@@ -1225,21 +1234,24 @@
     <t>rough</t>
   </si>
   <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>huge</t>
+  </si>
+  <si>
+    <t>messy</t>
+  </si>
+  <si>
+    <t>delicous</t>
+  </si>
+  <si>
+    <t>wonderful</t>
+  </si>
+  <si>
     <t>delicious</t>
   </si>
   <si>
-    <t>huge</t>
-  </si>
-  <si>
-    <t>messy</t>
-  </si>
-  <si>
-    <t>delicous</t>
-  </si>
-  <si>
-    <t>wonderful</t>
-  </si>
-  <si>
     <t>refreshing</t>
   </si>
   <si>
@@ -1249,6 +1261,9 @@
     <t>limited</t>
   </si>
   <si>
+    <t>timely</t>
+  </si>
+  <si>
     <t>efficiently</t>
   </si>
   <si>
@@ -1283,6 +1298,9 @@
   </si>
   <si>
     <t>recommended</t>
+  </si>
+  <si>
+    <t>ashamed</t>
   </si>
   <si>
     <t>mortal</t>
@@ -1700,7 +1718,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F176"/>
+  <dimension ref="A1:F178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1731,16 +1749,16 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D2" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="E2" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="F2" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1751,16 +1769,16 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D3" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="E3" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F3" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1771,16 +1789,16 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D4" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="E4" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F4" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1791,16 +1809,16 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D5" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="E5" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F5" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1811,16 +1829,16 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D6" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="E6" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="F6" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1831,16 +1849,16 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="E7" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F7" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1851,16 +1869,16 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D8" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="E8" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="F8" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1871,16 +1889,16 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D9" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="E9" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="F9" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1891,16 +1909,16 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D10" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="E10" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F10" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1911,16 +1929,16 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D11" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="E11" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F11" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1931,16 +1949,16 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D12" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="E12" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F12" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1951,16 +1969,16 @@
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D13" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="E13" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F13" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1971,16 +1989,16 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D14" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="E14" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F14" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1991,16 +2009,16 @@
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D15" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="E15" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F15" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2011,16 +2029,16 @@
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D16" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="E16" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F16" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2031,16 +2049,16 @@
         <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D17" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="E17" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F17" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2051,16 +2069,16 @@
         <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D18" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="E18" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F18" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2071,16 +2089,16 @@
         <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D19" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="E19" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F19" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2091,16 +2109,16 @@
         <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D20" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="E20" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F20" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2111,16 +2129,16 @@
         <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D21" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="E21" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F21" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2131,16 +2149,16 @@
         <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D22" t="s">
-        <v>366</v>
+        <v>377</v>
       </c>
       <c r="E22" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F22" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2151,16 +2169,16 @@
         <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D23" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="E23" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F23" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2171,16 +2189,16 @@
         <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D24" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E24" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F24" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2191,16 +2209,16 @@
         <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D25" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="E25" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="F25" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2211,16 +2229,16 @@
         <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D26" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="E26" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="F26" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2231,16 +2249,16 @@
         <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D27" t="s">
-        <v>360</v>
+        <v>379</v>
       </c>
       <c r="E27" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F27" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -2251,16 +2269,16 @@
         <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D28" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="E28" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="F28" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -2271,16 +2289,16 @@
         <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D29" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="E29" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="F29" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2291,16 +2309,16 @@
         <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D30" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="E30" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="F30" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2311,16 +2329,16 @@
         <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D31" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="E31" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="F31" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2331,16 +2349,16 @@
         <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D32" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
       <c r="E32" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F32" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2351,16 +2369,16 @@
         <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D33" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="E33" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F33" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -2371,16 +2389,16 @@
         <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D34" t="s">
-        <v>366</v>
+        <v>383</v>
       </c>
       <c r="E34" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F34" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2391,16 +2409,16 @@
         <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D35" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="E35" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F35" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2411,16 +2429,16 @@
         <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D36" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="E36" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F36" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2431,16 +2449,13 @@
         <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>215</v>
-      </c>
-      <c r="D37" t="s">
-        <v>369</v>
+        <v>217</v>
       </c>
       <c r="E37" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F37" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2451,16 +2466,16 @@
         <v>41</v>
       </c>
       <c r="C38" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D38" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="E38" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F38" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2471,16 +2486,16 @@
         <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D39" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="E39" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="F39" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2491,16 +2506,16 @@
         <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D40" t="s">
-        <v>366</v>
+        <v>385</v>
       </c>
       <c r="E40" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="F40" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2511,16 +2526,16 @@
         <v>44</v>
       </c>
       <c r="C41" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D41" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="E41" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F41" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2531,16 +2546,16 @@
         <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D42" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E42" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F42" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2551,16 +2566,16 @@
         <v>46</v>
       </c>
       <c r="C43" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D43" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="E43" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="F43" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2571,16 +2586,16 @@
         <v>47</v>
       </c>
       <c r="C44" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D44" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="E44" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="F44" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2591,16 +2606,16 @@
         <v>48</v>
       </c>
       <c r="C45" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D45" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="E45" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="F45" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2611,16 +2626,16 @@
         <v>49</v>
       </c>
       <c r="C46" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D46" t="s">
-        <v>366</v>
+        <v>387</v>
       </c>
       <c r="E46" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F46" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2631,16 +2646,16 @@
         <v>50</v>
       </c>
       <c r="C47" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D47" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="E47" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F47" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2651,16 +2666,16 @@
         <v>51</v>
       </c>
       <c r="C48" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D48" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E48" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F48" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2671,16 +2686,16 @@
         <v>52</v>
       </c>
       <c r="C49" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D49" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="E49" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F49" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2691,16 +2706,16 @@
         <v>53</v>
       </c>
       <c r="C50" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D50" t="s">
-        <v>366</v>
+        <v>389</v>
       </c>
       <c r="E50" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F50" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2711,16 +2726,16 @@
         <v>54</v>
       </c>
       <c r="C51" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D51" t="s">
-        <v>387</v>
+        <v>371</v>
       </c>
       <c r="E51" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F51" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2731,16 +2746,16 @@
         <v>55</v>
       </c>
       <c r="C52" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D52" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="E52" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F52" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2751,16 +2766,16 @@
         <v>56</v>
       </c>
       <c r="C53" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D53" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="E53" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="F53" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2771,16 +2786,16 @@
         <v>57</v>
       </c>
       <c r="C54" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D54" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="E54" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="F54" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2791,16 +2806,16 @@
         <v>58</v>
       </c>
       <c r="C55" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D55" t="s">
-        <v>357</v>
+        <v>393</v>
       </c>
       <c r="E55" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F55" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2811,16 +2826,16 @@
         <v>59</v>
       </c>
       <c r="C56" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D56" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="E56" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F56" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2831,16 +2846,16 @@
         <v>60</v>
       </c>
       <c r="C57" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D57" t="s">
         <v>371</v>
       </c>
       <c r="E57" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F57" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2851,16 +2866,16 @@
         <v>61</v>
       </c>
       <c r="C58" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D58" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="E58" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F58" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2871,16 +2886,16 @@
         <v>62</v>
       </c>
       <c r="C59" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D59" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="E59" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F59" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2891,16 +2906,16 @@
         <v>63</v>
       </c>
       <c r="C60" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D60" t="s">
-        <v>391</v>
+        <v>371</v>
       </c>
       <c r="E60" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F60" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2911,16 +2926,16 @@
         <v>64</v>
       </c>
       <c r="C61" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D61" t="s">
-        <v>376</v>
+        <v>394</v>
       </c>
       <c r="E61" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="F61" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2931,16 +2946,16 @@
         <v>65</v>
       </c>
       <c r="C62" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D62" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="E62" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="F62" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2951,16 +2966,16 @@
         <v>66</v>
       </c>
       <c r="C63" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D63" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="E63" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F63" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2971,16 +2986,16 @@
         <v>67</v>
       </c>
       <c r="C64" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D64" t="s">
         <v>393</v>
       </c>
       <c r="E64" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F64" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2991,16 +3006,16 @@
         <v>68</v>
       </c>
       <c r="C65" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D65" t="s">
-        <v>370</v>
+        <v>396</v>
       </c>
       <c r="E65" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F65" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -3011,16 +3026,16 @@
         <v>69</v>
       </c>
       <c r="C66" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D66" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="E66" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F66" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -3031,16 +3046,16 @@
         <v>70</v>
       </c>
       <c r="C67" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D67" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="E67" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F67" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -3051,16 +3066,16 @@
         <v>71</v>
       </c>
       <c r="C68" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D68" t="s">
-        <v>394</v>
+        <v>371</v>
       </c>
       <c r="E68" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F68" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -3071,16 +3086,16 @@
         <v>72</v>
       </c>
       <c r="C69" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D69" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E69" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="F69" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -3091,16 +3106,16 @@
         <v>73</v>
       </c>
       <c r="C70" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D70" t="s">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="E70" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="F70" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -3111,16 +3126,16 @@
         <v>74</v>
       </c>
       <c r="C71" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D71" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="E71" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F71" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -3131,16 +3146,16 @@
         <v>75</v>
       </c>
       <c r="C72" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D72" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="E72" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F72" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -3151,13 +3166,16 @@
         <v>76</v>
       </c>
       <c r="C73" t="s">
-        <v>251</v>
+        <v>253</v>
+      </c>
+      <c r="D73" t="s">
+        <v>400</v>
       </c>
       <c r="E73" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F73" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -3168,16 +3186,13 @@
         <v>77</v>
       </c>
       <c r="C74" t="s">
-        <v>252</v>
-      </c>
-      <c r="D74" t="s">
-        <v>398</v>
+        <v>254</v>
       </c>
       <c r="E74" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F74" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -3188,16 +3203,16 @@
         <v>78</v>
       </c>
       <c r="C75" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D75" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="E75" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F75" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -3208,16 +3223,16 @@
         <v>79</v>
       </c>
       <c r="C76" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D76" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="E76" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F76" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -3228,16 +3243,16 @@
         <v>80</v>
       </c>
       <c r="C77" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D77" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="E77" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F77" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -3248,16 +3263,16 @@
         <v>81</v>
       </c>
       <c r="C78" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D78" t="s">
-        <v>369</v>
+        <v>404</v>
       </c>
       <c r="E78" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F78" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -3268,16 +3283,16 @@
         <v>82</v>
       </c>
       <c r="C79" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D79" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="E79" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F79" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -3288,16 +3303,16 @@
         <v>83</v>
       </c>
       <c r="C80" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D80" t="s">
-        <v>402</v>
+        <v>382</v>
       </c>
       <c r="E80" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F80" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -3308,16 +3323,16 @@
         <v>84</v>
       </c>
       <c r="C81" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D81" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="E81" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F81" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -3328,16 +3343,16 @@
         <v>85</v>
       </c>
       <c r="C82" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D82" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="E82" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F82" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -3348,16 +3363,16 @@
         <v>86</v>
       </c>
       <c r="C83" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D83" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="E83" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="F83" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -3368,16 +3383,16 @@
         <v>87</v>
       </c>
       <c r="C84" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D84" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="E84" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="F84" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -3388,16 +3403,16 @@
         <v>88</v>
       </c>
       <c r="C85" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D85" t="s">
-        <v>372</v>
+        <v>409</v>
       </c>
       <c r="E85" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F85" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -3408,16 +3423,16 @@
         <v>89</v>
       </c>
       <c r="C86" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D86" t="s">
-        <v>362</v>
+        <v>377</v>
       </c>
       <c r="E86" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F86" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -3428,16 +3443,16 @@
         <v>90</v>
       </c>
       <c r="C87" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D87" t="s">
-        <v>407</v>
+        <v>367</v>
       </c>
       <c r="E87" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F87" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -3448,16 +3463,16 @@
         <v>91</v>
       </c>
       <c r="C88" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D88" t="s">
-        <v>382</v>
+        <v>410</v>
       </c>
       <c r="E88" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="F88" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -3468,16 +3483,16 @@
         <v>92</v>
       </c>
       <c r="C89" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D89" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
       <c r="E89" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="F89" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3488,16 +3503,16 @@
         <v>93</v>
       </c>
       <c r="C90" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D90" t="s">
-        <v>403</v>
+        <v>373</v>
       </c>
       <c r="E90" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="F90" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -3508,16 +3523,16 @@
         <v>94</v>
       </c>
       <c r="C91" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D91" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="E91" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F91" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3528,13 +3543,16 @@
         <v>95</v>
       </c>
       <c r="C92" t="s">
-        <v>270</v>
+        <v>272</v>
+      </c>
+      <c r="D92" t="s">
+        <v>411</v>
       </c>
       <c r="E92" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F92" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3545,16 +3563,16 @@
         <v>96</v>
       </c>
       <c r="C93" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D93" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="E93" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F93" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3565,16 +3583,16 @@
         <v>97</v>
       </c>
       <c r="C94" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D94" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="E94" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F94" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3585,16 +3603,16 @@
         <v>98</v>
       </c>
       <c r="C95" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D95" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="E95" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F95" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3605,16 +3623,16 @@
         <v>99</v>
       </c>
       <c r="C96" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D96" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="E96" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F96" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3625,16 +3643,16 @@
         <v>100</v>
       </c>
       <c r="C97" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D97" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="E97" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F97" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3645,16 +3663,16 @@
         <v>101</v>
       </c>
       <c r="C98" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D98" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="E98" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F98" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3665,16 +3683,16 @@
         <v>102</v>
       </c>
       <c r="C99" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D99" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="E99" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F99" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3685,16 +3703,16 @@
         <v>103</v>
       </c>
       <c r="C100" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D100" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="E100" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="F100" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3705,16 +3723,16 @@
         <v>104</v>
       </c>
       <c r="C101" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D101" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="E101" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F101" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3725,16 +3743,16 @@
         <v>105</v>
       </c>
       <c r="C102" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D102" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="E102" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F102" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3745,16 +3763,16 @@
         <v>106</v>
       </c>
       <c r="C103" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D103" t="s">
-        <v>372</v>
+        <v>415</v>
       </c>
       <c r="E103" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F103" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3765,16 +3783,16 @@
         <v>107</v>
       </c>
       <c r="C104" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D104" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="E104" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F104" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3785,16 +3803,16 @@
         <v>108</v>
       </c>
       <c r="C105" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D105" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="E105" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F105" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3805,16 +3823,16 @@
         <v>109</v>
       </c>
       <c r="C106" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D106" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="E106" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F106" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3825,16 +3843,16 @@
         <v>110</v>
       </c>
       <c r="C107" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D107" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="E107" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F107" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3845,16 +3863,16 @@
         <v>111</v>
       </c>
       <c r="C108" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D108" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="E108" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F108" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3865,16 +3883,16 @@
         <v>112</v>
       </c>
       <c r="C109" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D109" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="E109" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F109" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3885,16 +3903,16 @@
         <v>113</v>
       </c>
       <c r="C110" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D110" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="E110" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F110" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3905,16 +3923,16 @@
         <v>114</v>
       </c>
       <c r="C111" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D111" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="E111" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F111" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3925,16 +3943,16 @@
         <v>115</v>
       </c>
       <c r="C112" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D112" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="E112" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F112" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3945,16 +3963,16 @@
         <v>116</v>
       </c>
       <c r="C113" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D113" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="E113" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="F113" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3965,16 +3983,16 @@
         <v>117</v>
       </c>
       <c r="C114" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D114" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="E114" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="F114" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3985,16 +4003,16 @@
         <v>118</v>
       </c>
       <c r="C115" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D115" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="E115" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F115" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -4005,16 +4023,16 @@
         <v>119</v>
       </c>
       <c r="C116" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D116" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="E116" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F116" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -4025,16 +4043,16 @@
         <v>120</v>
       </c>
       <c r="C117" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D117" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="E117" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F117" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -4045,16 +4063,16 @@
         <v>121</v>
       </c>
       <c r="C118" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D118" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="E118" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="F118" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -4065,16 +4083,16 @@
         <v>122</v>
       </c>
       <c r="C119" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D119" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="E119" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="F119" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -4085,16 +4103,16 @@
         <v>123</v>
       </c>
       <c r="C120" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D120" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="E120" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F120" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -4105,16 +4123,16 @@
         <v>124</v>
       </c>
       <c r="C121" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D121" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="E121" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="F121" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -4125,16 +4143,16 @@
         <v>125</v>
       </c>
       <c r="C122" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D122" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="E122" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F122" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -4145,16 +4163,16 @@
         <v>126</v>
       </c>
       <c r="C123" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D123" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="E123" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="F123" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -4165,16 +4183,16 @@
         <v>127</v>
       </c>
       <c r="C124" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D124" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="E124" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="F124" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -4185,16 +4203,16 @@
         <v>128</v>
       </c>
       <c r="C125" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D125" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="E125" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="F125" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -4205,16 +4223,16 @@
         <v>129</v>
       </c>
       <c r="C126" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D126" t="s">
-        <v>403</v>
+        <v>377</v>
       </c>
       <c r="E126" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F126" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -4225,16 +4243,16 @@
         <v>130</v>
       </c>
       <c r="C127" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D127" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="E127" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F127" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -4245,16 +4263,16 @@
         <v>131</v>
       </c>
       <c r="C128" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D128" t="s">
-        <v>369</v>
+        <v>428</v>
       </c>
       <c r="E128" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F128" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -4265,16 +4283,16 @@
         <v>132</v>
       </c>
       <c r="C129" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D129" t="s">
-        <v>394</v>
+        <v>371</v>
       </c>
       <c r="E129" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F129" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -4285,16 +4303,16 @@
         <v>133</v>
       </c>
       <c r="C130" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D130" t="s">
-        <v>423</v>
+        <v>374</v>
       </c>
       <c r="E130" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F130" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -4305,16 +4323,16 @@
         <v>134</v>
       </c>
       <c r="C131" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D131" t="s">
-        <v>424</v>
+        <v>397</v>
       </c>
       <c r="E131" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F131" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -4325,16 +4343,16 @@
         <v>135</v>
       </c>
       <c r="C132" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D132" t="s">
-        <v>371</v>
+        <v>429</v>
       </c>
       <c r="E132" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F132" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -4345,16 +4363,16 @@
         <v>136</v>
       </c>
       <c r="C133" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D133" t="s">
-        <v>378</v>
+        <v>430</v>
       </c>
       <c r="E133" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="F133" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -4365,16 +4383,16 @@
         <v>137</v>
       </c>
       <c r="C134" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D134" t="s">
-        <v>425</v>
+        <v>376</v>
       </c>
       <c r="E134" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F134" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -4385,16 +4403,16 @@
         <v>138</v>
       </c>
       <c r="C135" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D135" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="E135" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="F135" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -4405,16 +4423,16 @@
         <v>139</v>
       </c>
       <c r="C136" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D136" t="s">
-        <v>369</v>
+        <v>431</v>
       </c>
       <c r="E136" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F136" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -4425,16 +4443,16 @@
         <v>140</v>
       </c>
       <c r="C137" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D137" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="E137" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="F137" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -4445,16 +4463,16 @@
         <v>141</v>
       </c>
       <c r="C138" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D138" t="s">
-        <v>426</v>
+        <v>374</v>
       </c>
       <c r="E138" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F138" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -4465,16 +4483,16 @@
         <v>142</v>
       </c>
       <c r="C139" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D139" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="E139" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F139" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -4485,16 +4503,16 @@
         <v>143</v>
       </c>
       <c r="C140" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D140" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="E140" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F140" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -4505,16 +4523,16 @@
         <v>144</v>
       </c>
       <c r="C141" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D141" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="E141" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F141" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -4525,16 +4543,16 @@
         <v>145</v>
       </c>
       <c r="C142" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D142" t="s">
-        <v>415</v>
+        <v>433</v>
       </c>
       <c r="E142" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F142" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4545,16 +4563,16 @@
         <v>146</v>
       </c>
       <c r="C143" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D143" t="s">
-        <v>428</v>
+        <v>371</v>
       </c>
       <c r="E143" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="F143" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4565,16 +4583,16 @@
         <v>147</v>
       </c>
       <c r="C144" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D144" t="s">
-        <v>394</v>
+        <v>420</v>
       </c>
       <c r="E144" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F144" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4585,16 +4603,16 @@
         <v>148</v>
       </c>
       <c r="C145" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D145" t="s">
-        <v>366</v>
+        <v>434</v>
       </c>
       <c r="E145" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="F145" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4605,16 +4623,16 @@
         <v>149</v>
       </c>
       <c r="C146" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D146" t="s">
-        <v>366</v>
+        <v>397</v>
       </c>
       <c r="E146" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F146" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4625,16 +4643,16 @@
         <v>150</v>
       </c>
       <c r="C147" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D147" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="E147" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F147" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4645,16 +4663,16 @@
         <v>151</v>
       </c>
       <c r="C148" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D148" t="s">
-        <v>429</v>
+        <v>371</v>
       </c>
       <c r="E148" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F148" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4665,16 +4683,16 @@
         <v>152</v>
       </c>
       <c r="C149" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D149" t="s">
-        <v>430</v>
+        <v>374</v>
       </c>
       <c r="E149" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F149" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4685,16 +4703,16 @@
         <v>153</v>
       </c>
       <c r="C150" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D150" t="s">
-        <v>369</v>
+        <v>435</v>
       </c>
       <c r="E150" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F150" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4705,16 +4723,16 @@
         <v>154</v>
       </c>
       <c r="C151" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D151" t="s">
-        <v>376</v>
+        <v>436</v>
       </c>
       <c r="E151" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F151" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4725,16 +4743,16 @@
         <v>155</v>
       </c>
       <c r="C152" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D152" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="E152" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F152" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4745,16 +4763,16 @@
         <v>156</v>
       </c>
       <c r="C153" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D153" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="E153" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F153" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4765,16 +4783,16 @@
         <v>157</v>
       </c>
       <c r="C154" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D154" t="s">
-        <v>357</v>
+        <v>374</v>
       </c>
       <c r="E154" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F154" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4785,16 +4803,16 @@
         <v>158</v>
       </c>
       <c r="C155" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D155" t="s">
-        <v>366</v>
+        <v>397</v>
       </c>
       <c r="E155" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F155" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4805,16 +4823,16 @@
         <v>159</v>
       </c>
       <c r="C156" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D156" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="E156" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F156" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4825,16 +4843,16 @@
         <v>160</v>
       </c>
       <c r="C157" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D157" t="s">
-        <v>431</v>
+        <v>371</v>
       </c>
       <c r="E157" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F157" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4845,16 +4863,16 @@
         <v>161</v>
       </c>
       <c r="C158" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D158" t="s">
-        <v>432</v>
+        <v>374</v>
       </c>
       <c r="E158" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F158" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4865,16 +4883,16 @@
         <v>162</v>
       </c>
       <c r="C159" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D159" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="E159" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="F159" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4885,16 +4903,16 @@
         <v>163</v>
       </c>
       <c r="C160" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D160" t="s">
-        <v>395</v>
+        <v>438</v>
       </c>
       <c r="E160" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F160" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4905,16 +4923,16 @@
         <v>164</v>
       </c>
       <c r="C161" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D161" t="s">
-        <v>369</v>
+        <v>439</v>
       </c>
       <c r="E161" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="F161" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4925,16 +4943,16 @@
         <v>165</v>
       </c>
       <c r="C162" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D162" t="s">
-        <v>416</v>
+        <v>398</v>
       </c>
       <c r="E162" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F162" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4945,16 +4963,16 @@
         <v>166</v>
       </c>
       <c r="C163" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D163" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="E163" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="F163" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4965,16 +4983,16 @@
         <v>167</v>
       </c>
       <c r="C164" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D164" t="s">
-        <v>369</v>
+        <v>421</v>
       </c>
       <c r="E164" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F164" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4985,16 +5003,16 @@
         <v>168</v>
       </c>
       <c r="C165" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D165" t="s">
-        <v>434</v>
+        <v>385</v>
       </c>
       <c r="E165" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="F165" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -5005,16 +5023,16 @@
         <v>169</v>
       </c>
       <c r="C166" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D166" t="s">
-        <v>435</v>
+        <v>374</v>
       </c>
       <c r="E166" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="F166" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -5025,16 +5043,16 @@
         <v>170</v>
       </c>
       <c r="C167" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D167" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="E167" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="F167" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -5045,16 +5063,16 @@
         <v>171</v>
       </c>
       <c r="C168" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="D168" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="E168" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="F168" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -5065,16 +5083,16 @@
         <v>172</v>
       </c>
       <c r="C169" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D169" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="E169" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="F169" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -5085,16 +5103,16 @@
         <v>173</v>
       </c>
       <c r="C170" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D170" t="s">
-        <v>428</v>
+        <v>443</v>
       </c>
       <c r="E170" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="F170" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -5105,16 +5123,16 @@
         <v>174</v>
       </c>
       <c r="C171" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D171" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="E171" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="F171" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -5125,16 +5143,16 @@
         <v>175</v>
       </c>
       <c r="C172" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D172" t="s">
-        <v>407</v>
+        <v>434</v>
       </c>
       <c r="E172" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F172" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -5145,16 +5163,16 @@
         <v>176</v>
       </c>
       <c r="C173" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D173" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="E173" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F173" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -5165,16 +5183,16 @@
         <v>177</v>
       </c>
       <c r="C174" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D174" t="s">
-        <v>369</v>
+        <v>410</v>
       </c>
       <c r="E174" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F174" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -5185,16 +5203,16 @@
         <v>178</v>
       </c>
       <c r="C175" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D175" t="s">
-        <v>382</v>
+        <v>446</v>
       </c>
       <c r="E175" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="F175" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -5205,16 +5223,56 @@
         <v>179</v>
       </c>
       <c r="C176" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D176" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E176" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="F176" t="s">
-        <v>441</v>
+        <v>448</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177" s="1">
+        <v>175</v>
+      </c>
+      <c r="B177" t="s">
+        <v>180</v>
+      </c>
+      <c r="C177" t="s">
+        <v>357</v>
+      </c>
+      <c r="D177" t="s">
+        <v>385</v>
+      </c>
+      <c r="E177" t="s">
+        <v>447</v>
+      </c>
+      <c r="F177" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="A178" s="1">
+        <v>176</v>
+      </c>
+      <c r="B178" t="s">
+        <v>181</v>
+      </c>
+      <c r="C178" t="s">
+        <v>358</v>
+      </c>
+      <c r="D178" t="s">
+        <v>381</v>
+      </c>
+      <c r="E178" t="s">
+        <v>447</v>
+      </c>
+      <c r="F178" t="s">
+        <v>447</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Sentiwordnet/hasil_FOOD.xlsx
+++ b/Results/Sentiwordnet/hasil_FOOD.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="450">
   <si>
     <t>id</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>predict</t>
+  </si>
+  <si>
+    <t>score</t>
   </si>
   <si>
     <t>1004293:3</t>
@@ -1718,13 +1721,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F178"/>
+  <dimension ref="A1:G178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1740,3539 +1743,4073 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F2" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>448</v>
+      </c>
+      <c r="G2">
+        <v>-0.75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D3" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E3" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F3" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E4" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F4" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>449</v>
+      </c>
+      <c r="G4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D5" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E5" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F5" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>449</v>
+      </c>
+      <c r="G5">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D6" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E6" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F6" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>448</v>
+      </c>
+      <c r="G6">
+        <v>-0.625</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F7" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D8" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E8" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F8" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D9" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E9" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F9" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D10" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E10" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F10" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D11" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E11" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F11" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>449</v>
+      </c>
+      <c r="G11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D12" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E12" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F12" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>448</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D13" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E13" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F13" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>449</v>
+      </c>
+      <c r="G13">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D14" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E14" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F14" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>449</v>
+      </c>
+      <c r="G14">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D15" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E15" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F15" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D16" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E16" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F16" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D17" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E17" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F17" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>449</v>
+      </c>
+      <c r="G17">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D18" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E18" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F18" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>449</v>
+      </c>
+      <c r="G18">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D19" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E19" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F19" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>449</v>
+      </c>
+      <c r="G19">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D20" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E20" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F20" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>449</v>
+      </c>
+      <c r="G20">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D21" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E21" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F21" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>449</v>
+      </c>
+      <c r="G21">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D22" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E22" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F22" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>-0.625</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D23" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E23" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F23" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D24" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E24" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F24" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>449</v>
+      </c>
+      <c r="G24">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D25" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E25" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F25" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="G25">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D26" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E26" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F26" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="G26">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D27" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E27" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F27" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>449</v>
+      </c>
+      <c r="G27">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C28" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D28" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E28" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F28" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="G28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C29" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D29" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E29" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F29" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>448</v>
+      </c>
+      <c r="G29">
+        <v>-0.75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C30" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D30" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E30" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F30" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>449</v>
+      </c>
+      <c r="G30">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D31" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E31" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F31" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>449</v>
+      </c>
+      <c r="G31">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C32" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D32" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E32" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F32" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>449</v>
+      </c>
+      <c r="G32">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C33" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D33" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E33" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F33" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>449</v>
+      </c>
+      <c r="G33">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C34" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D34" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E34" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F34" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>448</v>
+      </c>
+      <c r="G34">
+        <v>-0.625</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C35" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D35" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E35" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F35" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C36" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D36" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E36" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F36" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>448</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C37" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E37" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F37" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+        <v>448</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C38" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D38" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E38" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F38" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>449</v>
+      </c>
+      <c r="G38">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C39" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D39" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E39" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F39" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="40" spans="1:6">
+      <c r="G39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C40" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D40" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E40" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F40" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>448</v>
+      </c>
+      <c r="G40">
+        <v>-0.375</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C41" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D41" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E41" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F41" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="42" spans="1:6">
+      <c r="G41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C42" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D42" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E42" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F42" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C43" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D43" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E43" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F43" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="44" spans="1:6">
+      <c r="G43">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C44" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D44" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E44" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F44" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="45" spans="1:6">
+      <c r="G44">
+        <v>-0.75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C45" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D45" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E45" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F45" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+        <v>448</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C46" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D46" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E46" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F46" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="47" spans="1:6">
+      <c r="G46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C47" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D47" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E47" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F47" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="48" spans="1:6">
+      <c r="G47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C48" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D48" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E48" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F48" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>449</v>
+      </c>
+      <c r="G48">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C49" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D49" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E49" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F49" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>449</v>
+      </c>
+      <c r="G49">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C50" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D50" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E50" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F50" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>448</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C51" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D51" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E51" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F51" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="52" spans="1:6">
+      <c r="G51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C52" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D52" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E52" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F52" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C53" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D53" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E53" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F53" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>448</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C54" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D54" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E54" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F54" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>448</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C55" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D55" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E55" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F55" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>448</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C56" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D56" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E56" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F56" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>449</v>
+      </c>
+      <c r="G56">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C57" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D57" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E57" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F57" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C58" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D58" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E58" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F58" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>449</v>
+      </c>
+      <c r="G58">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C59" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D59" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E59" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F59" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="60" spans="1:6">
+      <c r="G59">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C60" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D60" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E60" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F60" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="61" spans="1:6">
+      <c r="G60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C61" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D61" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E61" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F61" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>448</v>
+      </c>
+      <c r="G61">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C62" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D62" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E62" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F62" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+        <v>449</v>
+      </c>
+      <c r="G62">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C63" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D63" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E63" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F63" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="64" spans="1:6">
+      <c r="G63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C64" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D64" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E64" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F64" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>448</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C65" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D65" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E65" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F65" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="66" spans="1:6">
+      <c r="G65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C66" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D66" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E66" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F66" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>449</v>
+      </c>
+      <c r="G66">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C67" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D67" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E67" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F67" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>449</v>
+      </c>
+      <c r="G67">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C68" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D68" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E68" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F68" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="69" spans="1:6">
+      <c r="G68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C69" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D69" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E69" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F69" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>448</v>
+      </c>
+      <c r="G69">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C70" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D70" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E70" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F70" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
+        <v>449</v>
+      </c>
+      <c r="G70">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C71" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D71" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E71" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F71" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>449</v>
+      </c>
+      <c r="G71">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C72" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D72" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E72" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F72" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="73" spans="1:6">
+      <c r="G72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C73" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D73" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E73" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F73" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>449</v>
+      </c>
+      <c r="G73">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C74" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E74" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F74" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>448</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C75" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D75" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E75" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F75" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>448</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C76" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D76" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E76" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F76" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="77" spans="1:6">
+      <c r="G76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C77" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D77" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E77" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F77" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>448</v>
+      </c>
+      <c r="G77">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C78" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D78" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E78" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F78" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>448</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C79" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D79" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E79" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F79" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+        <v>449</v>
+      </c>
+      <c r="G79">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C80" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D80" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E80" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F80" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>449</v>
+      </c>
+      <c r="G80">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C81" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D81" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E81" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F81" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>448</v>
+      </c>
+      <c r="G81">
+        <v>-0.375</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C82" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D82" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E82" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F82" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C83" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D83" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E83" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F83" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>448</v>
+      </c>
+      <c r="G83">
+        <v>-0.125</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C84" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D84" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E84" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F84" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+        <v>448</v>
+      </c>
+      <c r="G84">
+        <v>-0.875</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C85" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D85" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E85" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F85" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>448</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C86" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D86" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E86" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F86" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="87" spans="1:6">
+      <c r="G86">
+        <v>-0.625</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C87" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D87" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E87" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F87" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="88" spans="1:6">
+      <c r="G87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C88" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D88" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E88" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F88" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>449</v>
+      </c>
+      <c r="G88">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C89" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D89" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E89" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F89" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>448</v>
+      </c>
+      <c r="G89">
+        <v>-0.375</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C90" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D90" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E90" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F90" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>449</v>
+      </c>
+      <c r="G90">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C91" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D91" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E91" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F91" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>449</v>
+      </c>
+      <c r="G91">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C92" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D92" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E92" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F92" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>449</v>
+      </c>
+      <c r="G92">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C93" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D93" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E93" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F93" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>449</v>
+      </c>
+      <c r="G93">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C94" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D94" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E94" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F94" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>448</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C95" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D95" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E95" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F95" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>449</v>
+      </c>
+      <c r="G95">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C96" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D96" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E96" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F96" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C97" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D97" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E97" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F97" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
+        <v>448</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C98" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D98" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E98" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F98" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>449</v>
+      </c>
+      <c r="G98">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C99" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D99" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E99" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F99" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
+        <v>449</v>
+      </c>
+      <c r="G99">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C100" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D100" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="E100" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F100" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
+        <v>448</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C101" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D101" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E101" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F101" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="102" spans="1:6">
+      <c r="G101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C102" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D102" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E102" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F102" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>449</v>
+      </c>
+      <c r="G102">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C103" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D103" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E103" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F103" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="104" spans="1:6">
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C104" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D104" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E104" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F104" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
+        <v>449</v>
+      </c>
+      <c r="G104">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
       <c r="A105" s="1">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C105" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D105" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E105" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F105" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
+        <v>449</v>
+      </c>
+      <c r="G105">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
       <c r="A106" s="1">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C106" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D106" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E106" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F106" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="107" spans="1:6">
+      <c r="G106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
       <c r="A107" s="1">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C107" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D107" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E107" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F107" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
+        <v>449</v>
+      </c>
+      <c r="G107">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
       <c r="A108" s="1">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C108" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D108" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E108" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F108" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
+        <v>449</v>
+      </c>
+      <c r="G108">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
       <c r="A109" s="1">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C109" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D109" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E109" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F109" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
+        <v>449</v>
+      </c>
+      <c r="G109">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
       <c r="A110" s="1">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C110" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D110" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E110" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F110" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
+        <v>449</v>
+      </c>
+      <c r="G110">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
       <c r="A111" s="1">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C111" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D111" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E111" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F111" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
+        <v>449</v>
+      </c>
+      <c r="G111">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
       <c r="A112" s="1">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C112" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D112" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E112" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F112" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="113" spans="1:6">
+      <c r="G112">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
       <c r="A113" s="1">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C113" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D113" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E113" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F113" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6">
+        <v>448</v>
+      </c>
+      <c r="G113">
+        <v>-0.75</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
       <c r="A114" s="1">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C114" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D114" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E114" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F114" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="115" spans="1:6">
+      <c r="G114">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
       <c r="A115" s="1">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C115" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D115" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="E115" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F115" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
+        <v>449</v>
+      </c>
+      <c r="G115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
       <c r="A116" s="1">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C116" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D116" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E116" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F116" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
+        <v>449</v>
+      </c>
+      <c r="G116">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
       <c r="A117" s="1">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C117" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D117" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E117" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F117" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6">
+        <v>449</v>
+      </c>
+      <c r="G117">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
       <c r="A118" s="1">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C118" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D118" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E118" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F118" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
+        <v>448</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
       <c r="A119" s="1">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C119" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D119" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E119" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F119" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6">
+        <v>449</v>
+      </c>
+      <c r="G119">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
       <c r="A120" s="1">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C120" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D120" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="E120" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F120" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6">
+        <v>449</v>
+      </c>
+      <c r="G120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
       <c r="A121" s="1">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C121" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D121" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E121" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F121" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6">
+        <v>448</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
       <c r="A122" s="1">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C122" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D122" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E122" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F122" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6">
+        <v>449</v>
+      </c>
+      <c r="G122">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
       <c r="A123" s="1">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C123" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D123" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E123" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F123" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6">
+        <v>448</v>
+      </c>
+      <c r="G123">
+        <v>-0.375</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
       <c r="A124" s="1">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C124" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D124" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E124" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F124" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6">
+        <v>449</v>
+      </c>
+      <c r="G124">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
       <c r="A125" s="1">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C125" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D125" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E125" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F125" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="126" spans="1:6">
+      <c r="G125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
       <c r="A126" s="1">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C126" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D126" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E126" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F126" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="127" spans="1:6">
+      <c r="G126">
+        <v>-0.625</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
       <c r="A127" s="1">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C127" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D127" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E127" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F127" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6">
+        <v>448</v>
+      </c>
+      <c r="G127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
       <c r="A128" s="1">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C128" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D128" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E128" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F128" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
+        <v>448</v>
+      </c>
+      <c r="G128">
+        <v>-0.75</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
       <c r="A129" s="1">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C129" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D129" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E129" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F129" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="130" spans="1:6">
+      <c r="G129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
       <c r="A130" s="1">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C130" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D130" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E130" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F130" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6">
+        <v>449</v>
+      </c>
+      <c r="G130">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
       <c r="A131" s="1">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C131" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D131" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E131" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F131" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6">
+        <v>448</v>
+      </c>
+      <c r="G131">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
       <c r="A132" s="1">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C132" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D132" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E132" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F132" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6">
+        <v>448</v>
+      </c>
+      <c r="G132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
       <c r="A133" s="1">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C133" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D133" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E133" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F133" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6">
+        <v>449</v>
+      </c>
+      <c r="G133">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
       <c r="A134" s="1">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C134" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D134" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E134" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F134" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6">
+        <v>449</v>
+      </c>
+      <c r="G134">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
       <c r="A135" s="1">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C135" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D135" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E135" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F135" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6">
+        <v>449</v>
+      </c>
+      <c r="G135">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
       <c r="A136" s="1">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C136" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D136" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E136" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F136" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6">
+        <v>448</v>
+      </c>
+      <c r="G136">
+        <v>-0.875</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
       <c r="A137" s="1">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C137" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D137" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E137" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F137" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="138" spans="1:6">
+      <c r="G137">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
       <c r="A138" s="1">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C138" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D138" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E138" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F138" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6">
+        <v>449</v>
+      </c>
+      <c r="G138">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
       <c r="A139" s="1">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C139" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D139" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E139" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F139" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="140" spans="1:6">
+      <c r="G139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
       <c r="A140" s="1">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C140" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D140" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E140" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F140" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6">
+        <v>448</v>
+      </c>
+      <c r="G140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
       <c r="A141" s="1">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C141" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D141" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E141" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F141" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="142" spans="1:6">
+      <c r="G141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
       <c r="A142" s="1">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C142" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D142" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E142" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F142" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="143" spans="1:6">
+      <c r="G142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
       <c r="A143" s="1">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C143" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D143" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E143" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F143" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="144" spans="1:6">
+      <c r="G143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
       <c r="A144" s="1">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C144" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D144" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E144" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F144" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="145" spans="1:6">
+      <c r="G144">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
       <c r="A145" s="1">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C145" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D145" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E145" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F145" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6">
+        <v>449</v>
+      </c>
+      <c r="G145">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
       <c r="A146" s="1">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C146" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D146" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E146" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F146" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6">
+        <v>448</v>
+      </c>
+      <c r="G146">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
       <c r="A147" s="1">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C147" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D147" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E147" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F147" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="148" spans="1:6">
+      <c r="G147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
       <c r="A148" s="1">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C148" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D148" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E148" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F148" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="149" spans="1:6">
+      <c r="G148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
       <c r="A149" s="1">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C149" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D149" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E149" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F149" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6">
+        <v>449</v>
+      </c>
+      <c r="G149">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
       <c r="A150" s="1">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C150" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D150" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E150" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F150" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="151" spans="1:6">
+      <c r="G150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
       <c r="A151" s="1">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C151" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D151" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E151" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F151" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="152" spans="1:6">
+      <c r="G151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
       <c r="A152" s="1">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C152" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D152" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E152" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F152" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6">
+        <v>449</v>
+      </c>
+      <c r="G152">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
       <c r="A153" s="1">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C153" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D153" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E153" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F153" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6">
+        <v>449</v>
+      </c>
+      <c r="G153">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
       <c r="A154" s="1">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C154" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D154" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E154" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F154" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6">
+        <v>449</v>
+      </c>
+      <c r="G154">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
       <c r="A155" s="1">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C155" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D155" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E155" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F155" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6">
+        <v>448</v>
+      </c>
+      <c r="G155">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
       <c r="A156" s="1">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C156" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D156" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E156" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F156" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6">
+        <v>449</v>
+      </c>
+      <c r="G156">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
       <c r="A157" s="1">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C157" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D157" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E157" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F157" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="158" spans="1:6">
+      <c r="G157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
       <c r="A158" s="1">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C158" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D158" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E158" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F158" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6">
+        <v>449</v>
+      </c>
+      <c r="G158">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
       <c r="A159" s="1">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C159" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D159" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E159" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F159" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6">
+        <v>449</v>
+      </c>
+      <c r="G159">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
       <c r="A160" s="1">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C160" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D160" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E160" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F160" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6">
+        <v>449</v>
+      </c>
+      <c r="G160">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
       <c r="A161" s="1">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C161" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D161" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E161" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F161" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6">
+        <v>449</v>
+      </c>
+      <c r="G161">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
       <c r="A162" s="1">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C162" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D162" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E162" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F162" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6">
+        <v>449</v>
+      </c>
+      <c r="G162">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
       <c r="A163" s="1">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C163" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D163" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E163" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F163" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6">
+        <v>449</v>
+      </c>
+      <c r="G163">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
       <c r="A164" s="1">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C164" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D164" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="E164" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F164" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6">
+        <v>449</v>
+      </c>
+      <c r="G164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
       <c r="A165" s="1">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C165" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D165" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E165" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F165" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6">
+        <v>448</v>
+      </c>
+      <c r="G165">
+        <v>-0.375</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
       <c r="A166" s="1">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C166" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D166" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E166" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F166" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6">
+        <v>449</v>
+      </c>
+      <c r="G166">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
       <c r="A167" s="1">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C167" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D167" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E167" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F167" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="168" spans="1:6">
+      <c r="G167">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
       <c r="A168" s="1">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C168" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D168" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E168" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F168" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6">
+        <v>448</v>
+      </c>
+      <c r="G168">
+        <v>-0.625</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
       <c r="A169" s="1">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C169" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D169" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E169" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F169" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6">
+        <v>448</v>
+      </c>
+      <c r="G169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
       <c r="A170" s="1">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C170" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D170" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E170" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F170" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="171" spans="1:6">
+      <c r="G170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
       <c r="A171" s="1">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C171" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D171" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E171" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F171" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6">
+        <v>448</v>
+      </c>
+      <c r="G171">
+        <v>-0.75</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
       <c r="A172" s="1">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C172" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D172" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E172" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F172" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6">
+        <v>449</v>
+      </c>
+      <c r="G172">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
       <c r="A173" s="1">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C173" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D173" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E173" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F173" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6">
+        <v>449</v>
+      </c>
+      <c r="G173">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
       <c r="A174" s="1">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C174" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D174" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E174" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F174" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6">
+        <v>449</v>
+      </c>
+      <c r="G174">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
       <c r="A175" s="1">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C175" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D175" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="E175" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F175" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6">
+        <v>449</v>
+      </c>
+      <c r="G175">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
       <c r="A176" s="1">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C176" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D176" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E176" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F176" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6">
+        <v>449</v>
+      </c>
+      <c r="G176">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
       <c r="A177" s="1">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C177" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D177" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E177" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F177" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6">
+        <v>448</v>
+      </c>
+      <c r="G177">
+        <v>-0.375</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
       <c r="A178" s="1">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C178" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D178" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E178" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F178" t="s">
-        <v>447</v>
+        <v>449</v>
+      </c>
+      <c r="G178">
+        <v>0.125</v>
       </c>
     </row>
   </sheetData>
